--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_36.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1461738.660558725</v>
+        <v>1457308.322383312</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5302419.152462203</v>
+        <v>5413711.842050619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11232339.78768198</v>
+        <v>11223948.89992745</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6536501.62133356</v>
+        <v>6521426.997819182</v>
       </c>
     </row>
     <row r="11">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>8.478328118847974</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>8.478328118847974</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>8.478328118847974</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8.478328118847974</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>8.478328118847974</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2527,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>8.478328118847974</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2561,10 +2561,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>8.478328118847974</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>8.478328118847974</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2685,13 +2685,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>8.478328118847974</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,10 +2792,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>8.478328118847974</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2874,13 +2874,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7526328886747309</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>7.725695230173244</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>8.478328118847974</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3038,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>8.478328118847974</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>7.725695230173244</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3162,16 +3162,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.7526328886747309</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>8.478328118847974</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3247,10 +3247,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3317,16 +3317,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>8.478328118847974</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7526328886747309</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>7.725695230173244</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9360648988932353</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>9.090445483358536</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>8.077530859720611</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>8.478328118847974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,16 +3582,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7526328886747327</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>7.725695230173244</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>8.478328118847974</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3721,13 +3721,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>8.478328118847974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3797,13 +3797,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8.478328118847974</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3901,10 +3901,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>8.478328118847974</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>9.914484516818138</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>19.4439405087113</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>28.97339650060446</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>19.0569673952766</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.0569673952766</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>9.33402484666609</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>9.33402484666609</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>9.33402484666609</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>9.914484516818138</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>9.914484516818138</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>19.4439405087113</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>28.97339650060446</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>28.97339650060446</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>28.97339650060446</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>10.29951304174311</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>19.82896903363628</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>28.97339650060446</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>19.0569673952766</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>9.914484516818138</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>19.4439405087113</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>28.97339650060446</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>19.0569673952766</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.0569673952766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>9.914484516818138</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>19.4439405087113</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>28.97339650060446</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>29.93888469568149</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>29.93888469568149</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>29.93888469568149</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>29.93888469568149</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>29.93888469568149</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>20.21594214707098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>10.29951304174311</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>19.82896903363628</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>28.97339650060446</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>19.0569673952766</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>9.33402484666609</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>20.21594214707098</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>20.21594214707098</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>20.21594214707098</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>10.29951304174311</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>19.82896903363628</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>29.35842502552944</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>20.21594214707098</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>20.21594214707098</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>20.21594214707098</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>20.21594214707098</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>20.21594214707098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9.33402484666609</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>10.29951304174311</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>19.82896903363628</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>28.97339650060446</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>19.0569673952766</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>9.33402484666609</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>9.33402484666609</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>9.33402484666609</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.33402484666609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>10.29951304174311</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>19.82896903363628</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>29.35842502552944</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>19.0569673952766</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.93888469568149</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>20.21594214707098</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>10.29951304174311</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>19.82896903363628</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>29.35842502552944</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.93888469568149</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>29.93888469568149</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>29.93888469568149</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>29.93888469568149</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>29.93888469568149</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>29.93888469568149</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.93888469568149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9.33402484666609</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>9.33402484666609</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>8.573789605580503</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>8.573789605580503</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>9.914484516818138</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>9.914484516818138</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>9.914484516818138</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>9.914484516818138</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>19.4439405087113</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>28.97339650060446</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>19.0569673952766</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>9.33402484666609</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>9.33402484666609</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>9.33402484666609</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>9.33402484666609</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.33402484666609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.0569673952766</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>19.0569673952766</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>19.0569673952766</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>9.914484516818138</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>19.4439405087113</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>28.97339650060446</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>19.0569673952766</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>19.0569673952766</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>19.0569673952766</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>19.0569673952766</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>19.0569673952766</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>19.0569673952766</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.0569673952766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>19.0569673952766</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>9.33402484666609</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>9.914484516818138</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>19.4439405087113</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>28.97339650060446</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8.573789605580503</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>8.573789605580503</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>8.573789605580503</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>8.573789605580503</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>10.29951304174311</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>19.82896903363628</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>29.35842502552944</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>19.0569673952766</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>9.33402484666609</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>8.573789605580503</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.573789605580503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9.33402484666609</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>10.29951304174311</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>19.82896903363628</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>29.35842502552944</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>19.0569673952766</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>9.33402484666609</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.33402484666609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>9.914484516818138</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>9.914484516818138</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>19.4439405087113</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>28.97339650060446</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>20.21594214707098</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>9.33402484666609</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>8.573789605580503</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>8.573789605580503</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>8.573789605580503</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>9.914484516818138</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>19.4439405087113</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>28.97339650060446</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.0569673952766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.0569673952766</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>19.0569673952766</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>18.11144729538444</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>8.929179130375823</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>9.914484516818138</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>19.4439405087113</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>28.97339650060446</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>20.21594214707098</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>20.21594214707098</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>20.21594214707098</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>20.21594214707098</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>10.29951304174311</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>19.82896903363628</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>29.35842502552944</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.93888469568149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>28.01967470280152</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>18.29673215419101</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>8.573789605580503</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>10.29951304174311</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>19.82896903363628</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>29.35842502552944</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>9.914484516818138</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>19.4439405087113</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>28.97339650060446</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>29.93888469568149</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>29.93888469568149</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>29.93888469568149</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>29.93888469568149</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>20.21594214707098</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>9.914484516818138</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>19.4439405087113</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>28.97339650060446</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>29.93888469568149</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>29.93888469568149</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>29.93888469568149</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>29.93888469568149</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>20.21594214707098</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>10.49299959846046</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>10.29951304174311</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>19.82896903363628</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>19.82896903363628</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>29.35842502552944</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>29.35842502552944</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>19.0569673952766</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>19.0569673952766</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.33402484666609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>19.0569673952766</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>9.33402484666609</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>9.33402484666609</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>9.33402484666609</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>9.33402484666609</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.7700570498499525</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>10.29951304174311</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>19.82896903363628</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>29.35842502552944</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>38.50285249249762</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.77990994388711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -9407,16 +9407,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M20" t="n">
-        <v>239.5830286484527</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
-        <v>239.0387767197153</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>239.7239245448111</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P20" t="n">
-        <v>240.8587088783939</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>147.078234395539</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>151.7597470451427</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>140.9674252064577</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
@@ -9498,7 +9498,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>149.6074872091459</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9562,16 +9562,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>144.5103894043627</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M22" t="n">
-        <v>148.5514970707295</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N22" t="n">
-        <v>136.9223398864132</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O22" t="n">
-        <v>148.0822515749672</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P22" t="n">
         <v>135.0065633140411</v>
@@ -9644,16 +9644,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M23" t="n">
-        <v>239.5830286484527</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N23" t="n">
-        <v>239.0387767197153</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>239.7239245448111</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P23" t="n">
-        <v>240.8587088783939</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9720,16 +9720,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>147.7911752010542</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>151.7597470451427</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>140.9674252064577</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>152.2219575675688</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -9799,16 +9799,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>144.5103894043627</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M25" t="n">
-        <v>148.5514970707295</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N25" t="n">
-        <v>136.9223398864132</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O25" t="n">
-        <v>148.0822515749672</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P25" t="n">
         <v>135.0065633140411</v>
@@ -9878,16 +9878,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L26" t="n">
-        <v>245.3921280931116</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M26" t="n">
-        <v>239.9719463503971</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N26" t="n">
-        <v>239.0387767197153</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>239.3350068428667</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P26" t="n">
         <v>231.2329957552695</v>
@@ -9960,16 +9960,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>151.7597470451427</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>140.9674252064577</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>151.8330398656244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>143.6001205374546</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10036,16 +10036,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>144.5103894043627</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M28" t="n">
-        <v>148.5514970707295</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N28" t="n">
-        <v>137.3112575883576</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O28" t="n">
-        <v>147.6933338730228</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
@@ -10112,16 +10112,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>229.7155641681049</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>245.3921280931116</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M29" t="n">
-        <v>239.9719463503971</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N29" t="n">
-        <v>238.6498590177709</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
         <v>230.0982114216867</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>147.078234395539</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -10203,13 +10203,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>152.2219575675688</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>143.6001205374546</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>149.6074872091459</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10273,16 +10273,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>144.1214717024183</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M31" t="n">
-        <v>148.5514970707295</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N31" t="n">
-        <v>137.3112575883576</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O31" t="n">
-        <v>148.0822515749672</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P31" t="n">
         <v>135.0065633140411</v>
@@ -10352,16 +10352,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
-        <v>245.0032103911672</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M32" t="n">
-        <v>239.9719463503971</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
-        <v>239.0387767197153</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>239.7239245448111</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P32" t="n">
         <v>231.2329957552695</v>
@@ -10428,16 +10428,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>147.4671520974834</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>148.1800929029986</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>151.7597470451427</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>140.5785075045133</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
@@ -10510,16 +10510,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>144.5103894043627</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M34" t="n">
-        <v>148.5514970707295</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N34" t="n">
-        <v>137.3112575883576</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O34" t="n">
-        <v>147.6933338730228</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
@@ -10586,19 +10586,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>229.3266464661605</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L35" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M35" t="n">
-        <v>239.9719463503971</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
-        <v>239.0387767197153</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>239.7239245448111</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P35" t="n">
         <v>231.2329957552695</v>
@@ -10674,16 +10674,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>140.5785075045133</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>152.2219575675688</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>143.6001205374546</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>149.6074872091459</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10747,16 +10747,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>144.1214717024183</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M37" t="n">
-        <v>148.5514970707295</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N37" t="n">
-        <v>137.3112575883576</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O37" t="n">
-        <v>148.0822515749672</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P37" t="n">
         <v>135.0065633140411</v>
@@ -10823,16 +10823,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>229.7155641681049</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
-        <v>245.3921280931116</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M38" t="n">
-        <v>239.9719463503971</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
-        <v>238.6498590177709</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
         <v>230.0982114216867</v>
@@ -10911,16 +10911,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>140.9674252064577</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>152.2219575675688</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>143.6001205374546</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>149.2185695072015</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10984,16 +10984,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>144.1214717024183</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M40" t="n">
-        <v>148.5514970707295</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N40" t="n">
-        <v>137.3112575883576</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O40" t="n">
-        <v>148.0822515749672</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P40" t="n">
         <v>135.0065633140411</v>
@@ -11066,16 +11066,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
-        <v>239.5830286484527</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
-        <v>239.0387767197153</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>239.7239245448111</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
-        <v>240.8587088783939</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,22 +11139,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>147.4671520974834</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>148.1800929029986</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>140.9674252064577</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>143.2112028355102</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11221,16 +11221,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>144.5103894043627</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M43" t="n">
-        <v>148.5514970707295</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N43" t="n">
-        <v>137.3112575883576</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O43" t="n">
-        <v>147.6933338730228</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P43" t="n">
         <v>135.0065633140411</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>46.8842247013525</v>
+        <v>56.50993782447691</v>
       </c>
       <c r="S20" t="n">
         <v>115.6608894695726</v>
@@ -24026,16 +24026,16 @@
         <v>157.9864727911637</v>
       </c>
       <c r="V20" t="n">
-        <v>224.7673652303377</v>
+        <v>234.3930783534621</v>
       </c>
       <c r="W20" t="n">
-        <v>247.4034604818923</v>
+        <v>255.8817886007402</v>
       </c>
       <c r="X20" t="n">
         <v>276.3719205617963</v>
       </c>
       <c r="Y20" t="n">
-        <v>283.2530454162564</v>
+        <v>292.8787585393808</v>
       </c>
     </row>
     <row r="21">
@@ -24045,10 +24045,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>63.54829041007016</v>
+        <v>73.17400353319456</v>
       </c>
       <c r="C21" t="n">
-        <v>69.72360574851857</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D21" t="n">
         <v>54.08588544796598</v>
@@ -24057,7 +24057,7 @@
         <v>64.28590033872817</v>
       </c>
       <c r="F21" t="n">
-        <v>43.23170415786313</v>
+        <v>51.7100322767111</v>
       </c>
       <c r="G21" t="n">
         <v>43.98433704653786</v>
@@ -24096,7 +24096,7 @@
         <v>6.798654035970358</v>
       </c>
       <c r="S21" t="n">
-        <v>68.69827786404065</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T21" t="n">
         <v>106.8055485781488</v>
@@ -24142,7 +24142,7 @@
         <v>74.63179924178598</v>
       </c>
       <c r="H22" t="n">
-        <v>59.2422792676424</v>
+        <v>68.8679923907668</v>
       </c>
       <c r="I22" t="n">
         <v>62.09129481058551</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>74.30849813737231</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S22" t="n">
         <v>130.6574179202995</v>
@@ -24181,10 +24181,10 @@
         <v>134.5864093116087</v>
       </c>
       <c r="U22" t="n">
-        <v>183.3341361166937</v>
+        <v>192.9598492398181</v>
       </c>
       <c r="V22" t="n">
-        <v>150.3001350883073</v>
+        <v>158.7784632071552</v>
       </c>
       <c r="W22" t="n">
         <v>193.1638182199182</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>280.8963334279599</v>
+        <v>289.3746615468078</v>
       </c>
       <c r="C23" t="n">
         <v>271.9137116543347</v>
@@ -24215,7 +24215,7 @@
         <v>288.571189955589</v>
       </c>
       <c r="F23" t="n">
-        <v>303.8911525019143</v>
+        <v>313.5168656250387</v>
       </c>
       <c r="G23" t="n">
         <v>321.9435573984623</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>46.8842247013525</v>
+        <v>56.50993782447691</v>
       </c>
       <c r="S23" t="n">
         <v>115.6608894695726</v>
@@ -24269,7 +24269,7 @@
         <v>255.8817886007402</v>
       </c>
       <c r="X23" t="n">
-        <v>266.7462074386719</v>
+        <v>276.3719205617963</v>
       </c>
       <c r="Y23" t="n">
         <v>292.8787585393808</v>
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>63.54829041007016</v>
+        <v>73.17400353319456</v>
       </c>
       <c r="C24" t="n">
         <v>79.34931887164296</v>
@@ -24291,7 +24291,7 @@
         <v>54.08588544796598</v>
       </c>
       <c r="E24" t="n">
-        <v>54.66018721560376</v>
+        <v>64.28590033872817</v>
       </c>
       <c r="F24" t="n">
         <v>51.7100322767111</v>
@@ -24336,7 +24336,7 @@
         <v>78.32399098716505</v>
       </c>
       <c r="T24" t="n">
-        <v>98.32722045930086</v>
+        <v>106.8055485781488</v>
       </c>
       <c r="U24" t="n">
         <v>132.582201964302</v>
@@ -24351,7 +24351,7 @@
         <v>112.4138050868047</v>
       </c>
       <c r="Y24" t="n">
-        <v>102.6978025375072</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="25">
@@ -24415,19 +24415,19 @@
         <v>130.6574179202995</v>
       </c>
       <c r="T25" t="n">
-        <v>124.9606961884843</v>
+        <v>134.5864093116087</v>
       </c>
       <c r="U25" t="n">
         <v>192.9598492398181</v>
       </c>
       <c r="V25" t="n">
-        <v>149.1527500840308</v>
+        <v>158.7784632071552</v>
       </c>
       <c r="W25" t="n">
-        <v>183.5381050967938</v>
+        <v>193.1638182199182</v>
       </c>
       <c r="X25" t="n">
-        <v>123.8721471535164</v>
+        <v>132.3504752723644</v>
       </c>
       <c r="Y25" t="n">
         <v>125.225473235422</v>
@@ -24449,10 +24449,10 @@
         <v>265.2864087692679</v>
       </c>
       <c r="E26" t="n">
-        <v>282.9080240977223</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F26" t="n">
-        <v>307.853699767172</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G26" t="n">
         <v>325.90610466372</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>50.8467719666102</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S26" t="n">
         <v>119.6234367348303</v>
@@ -24497,7 +24497,7 @@
         <v>133.6992167127163</v>
       </c>
       <c r="U26" t="n">
-        <v>153.4706919375735</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V26" t="n">
         <v>238.3556256187198</v>
@@ -24522,7 +24522,7 @@
         <v>77.13655079845226</v>
       </c>
       <c r="C27" t="n">
-        <v>74.83353801805269</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D27" t="n">
         <v>58.04843271322368</v>
@@ -24573,13 +24573,13 @@
         <v>82.28653825242274</v>
       </c>
       <c r="T27" t="n">
-        <v>101.1423827202821</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U27" t="n">
-        <v>126.9190361064353</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V27" t="n">
-        <v>133.7782411748858</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W27" t="n">
         <v>162.2983503095045</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>78.27104540262999</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S28" t="n">
         <v>134.6199651855572</v>
       </c>
       <c r="T28" t="n">
-        <v>128.923243453742</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U28" t="n">
-        <v>188.4440683862279</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V28" t="n">
         <v>162.7410104724129</v>
       </c>
       <c r="W28" t="n">
-        <v>187.5006523620515</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X28" t="n">
         <v>136.3130225376221</v>
@@ -24677,28 +24677,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>245.3903245002699</v>
+        <v>241.0693926669682</v>
       </c>
       <c r="C29" t="n">
-        <v>218.3036614846725</v>
+        <v>223.6084427744952</v>
       </c>
       <c r="D29" t="n">
-        <v>207.7138113343479</v>
+        <v>213.0185926241706</v>
       </c>
       <c r="E29" t="n">
-        <v>244.5868529090511</v>
+        <v>240.2659210757494</v>
       </c>
       <c r="F29" t="n">
-        <v>269.5325285785008</v>
+        <v>265.2115967451991</v>
       </c>
       <c r="G29" t="n">
-        <v>277.9592203519244</v>
+        <v>273.6382885186227</v>
       </c>
       <c r="H29" t="n">
-        <v>202.1312849525565</v>
+        <v>197.8103531192548</v>
       </c>
       <c r="I29" t="n">
-        <v>63.50665928407087</v>
+        <v>68.81144057389355</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>12.52560077793905</v>
+        <v>8.204668944637319</v>
       </c>
       <c r="S29" t="n">
-        <v>63.19822430418673</v>
+        <v>67.35562058973298</v>
       </c>
       <c r="T29" t="n">
-        <v>85.75233240092072</v>
+        <v>81.43140056761899</v>
       </c>
       <c r="U29" t="n">
-        <v>114.0021357446259</v>
+        <v>109.6812039113241</v>
       </c>
       <c r="V29" t="n">
-        <v>190.4087413069243</v>
+        <v>186.0878094736225</v>
       </c>
       <c r="W29" t="n">
-        <v>211.8974515542024</v>
+        <v>207.5765197209006</v>
       </c>
       <c r="X29" t="n">
-        <v>232.3875835152584</v>
+        <v>228.0666516819567</v>
       </c>
       <c r="Y29" t="n">
-        <v>248.894421492843</v>
+        <v>244.5734896595412</v>
       </c>
     </row>
     <row r="30">
@@ -24756,19 +24756,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>29.18966648665671</v>
+        <v>24.86873465335498</v>
       </c>
       <c r="C30" t="n">
-        <v>35.3649818251051</v>
+        <v>31.04404999180338</v>
       </c>
       <c r="D30" t="n">
-        <v>9.348915512753388</v>
+        <v>5.780616568126391</v>
       </c>
       <c r="E30" t="n">
-        <v>20.30156329219031</v>
+        <v>15.98063145888858</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>3.404763396871516</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24807,25 +24807,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>24.71394081750278</v>
+        <v>30.01872210732546</v>
       </c>
       <c r="T30" t="n">
-        <v>53.19549840848656</v>
+        <v>58.50027969830924</v>
       </c>
       <c r="U30" t="n">
-        <v>78.97215179463979</v>
+        <v>84.27693308446246</v>
       </c>
       <c r="V30" t="n">
-        <v>95.45706998621463</v>
+        <v>91.13613815291291</v>
       </c>
       <c r="W30" t="n">
-        <v>114.351465997709</v>
+        <v>110.0305341644072</v>
       </c>
       <c r="X30" t="n">
-        <v>68.42946804026684</v>
+        <v>64.10853620696511</v>
       </c>
       <c r="Y30" t="n">
-        <v>68.33917861409373</v>
+        <v>64.018246780792</v>
       </c>
     </row>
     <row r="31">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>42.48846301872666</v>
+        <v>38.16753118542493</v>
       </c>
       <c r="C31" t="n">
-        <v>29.9033039354172</v>
+        <v>25.58237210211547</v>
       </c>
       <c r="D31" t="n">
-        <v>11.27195585500172</v>
+        <v>6.951024021699993</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6121173645105618</v>
+        <v>4.769513650056808</v>
       </c>
       <c r="F31" t="n">
-        <v>8.077530859720611</v>
+        <v>3.756599026418883</v>
       </c>
       <c r="G31" t="n">
-        <v>30.64746219524812</v>
+        <v>26.3265303619464</v>
       </c>
       <c r="H31" t="n">
-        <v>24.88365534422894</v>
+        <v>20.56272351092721</v>
       </c>
       <c r="I31" t="n">
-        <v>8.481244640923244</v>
+        <v>13.78602593074592</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>30.32416109083444</v>
+        <v>35.62894238065712</v>
       </c>
       <c r="S31" t="n">
-        <v>77.04736775063722</v>
+        <v>82.35214904045989</v>
       </c>
       <c r="T31" t="n">
-        <v>90.60207226507086</v>
+        <v>86.28114043176913</v>
       </c>
       <c r="U31" t="n">
-        <v>148.9755121932803</v>
+        <v>144.6545803599785</v>
       </c>
       <c r="V31" t="n">
-        <v>114.7941261606174</v>
+        <v>110.4731943273156</v>
       </c>
       <c r="W31" t="n">
-        <v>149.1794811733804</v>
+        <v>144.8585493400786</v>
       </c>
       <c r="X31" t="n">
-        <v>88.36613822582652</v>
+        <v>84.04520639252479</v>
       </c>
       <c r="Y31" t="n">
-        <v>81.24113618888416</v>
+        <v>76.92020435558243</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>245.3903245002699</v>
+        <v>241.0693926669682</v>
       </c>
       <c r="C32" t="n">
-        <v>227.9293746077969</v>
+        <v>223.6084427744952</v>
       </c>
       <c r="D32" t="n">
-        <v>217.3395244574723</v>
+        <v>213.0185926241706</v>
       </c>
       <c r="E32" t="n">
-        <v>244.5868529090511</v>
+        <v>240.2659210757494</v>
       </c>
       <c r="F32" t="n">
-        <v>259.9068154553764</v>
+        <v>265.2115967451991</v>
       </c>
       <c r="G32" t="n">
-        <v>268.3335072288</v>
+        <v>273.6382885186227</v>
       </c>
       <c r="H32" t="n">
-        <v>193.6529568337085</v>
+        <v>197.8103531192548</v>
       </c>
       <c r="I32" t="n">
-        <v>73.13237240719528</v>
+        <v>68.81144057389355</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>12.52560077793905</v>
+        <v>8.204668944637319</v>
       </c>
       <c r="S32" t="n">
-        <v>71.67655242303471</v>
+        <v>67.35562058973298</v>
       </c>
       <c r="T32" t="n">
-        <v>85.75233240092072</v>
+        <v>81.43140056761899</v>
       </c>
       <c r="U32" t="n">
-        <v>114.0021357446259</v>
+        <v>109.6812039113241</v>
       </c>
       <c r="V32" t="n">
-        <v>190.4087413069243</v>
+        <v>186.0878094736225</v>
       </c>
       <c r="W32" t="n">
-        <v>202.271738431078</v>
+        <v>207.5765197209006</v>
       </c>
       <c r="X32" t="n">
-        <v>232.3875835152584</v>
+        <v>228.0666516819567</v>
       </c>
       <c r="Y32" t="n">
-        <v>248.894421492843</v>
+        <v>244.5734896595412</v>
       </c>
     </row>
     <row r="33">
@@ -24993,19 +24993,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>29.18966648665671</v>
+        <v>24.86873465335498</v>
       </c>
       <c r="C33" t="n">
-        <v>35.3649818251051</v>
+        <v>31.04404999180338</v>
       </c>
       <c r="D33" t="n">
-        <v>10.10154840142812</v>
+        <v>5.780616568126391</v>
       </c>
       <c r="E33" t="n">
-        <v>20.30156329219031</v>
+        <v>15.98063145888858</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>3.404763396871516</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -25044,25 +25044,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>34.33965394062719</v>
+        <v>30.01872210732546</v>
       </c>
       <c r="T33" t="n">
-        <v>62.82121153161097</v>
+        <v>58.50027969830924</v>
       </c>
       <c r="U33" t="n">
-        <v>78.97215179463979</v>
+        <v>84.27693308446246</v>
       </c>
       <c r="V33" t="n">
-        <v>85.83135686309024</v>
+        <v>91.13613815291291</v>
       </c>
       <c r="W33" t="n">
-        <v>104.7257528745846</v>
+        <v>110.0305341644072</v>
       </c>
       <c r="X33" t="n">
-        <v>67.67683515159212</v>
+        <v>64.10853620696511</v>
       </c>
       <c r="Y33" t="n">
-        <v>68.33917861409373</v>
+        <v>64.018246780792</v>
       </c>
     </row>
     <row r="34">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>42.48846301872666</v>
+        <v>38.16753118542493</v>
       </c>
       <c r="C34" t="n">
-        <v>21.42497581656922</v>
+        <v>25.58237210211547</v>
       </c>
       <c r="D34" t="n">
-        <v>11.27195585500172</v>
+        <v>6.951024021699993</v>
       </c>
       <c r="E34" t="n">
-        <v>9.090445483358536</v>
+        <v>4.769513650056808</v>
       </c>
       <c r="F34" t="n">
-        <v>8.077530859720611</v>
+        <v>3.756599026418883</v>
       </c>
       <c r="G34" t="n">
-        <v>30.64746219524812</v>
+        <v>26.3265303619464</v>
       </c>
       <c r="H34" t="n">
-        <v>24.88365534422894</v>
+        <v>20.56272351092721</v>
       </c>
       <c r="I34" t="n">
-        <v>18.10695776404765</v>
+        <v>13.78602593074592</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>30.32416109083444</v>
+        <v>35.62894238065712</v>
       </c>
       <c r="S34" t="n">
-        <v>86.67308087376162</v>
+        <v>82.35214904045989</v>
       </c>
       <c r="T34" t="n">
-        <v>90.60207226507086</v>
+        <v>86.28114043176913</v>
       </c>
       <c r="U34" t="n">
-        <v>148.9755121932803</v>
+        <v>144.6545803599785</v>
       </c>
       <c r="V34" t="n">
-        <v>114.7941261606174</v>
+        <v>110.4731943273156</v>
       </c>
       <c r="W34" t="n">
-        <v>139.553768050256</v>
+        <v>144.8585493400786</v>
       </c>
       <c r="X34" t="n">
-        <v>78.74042510270212</v>
+        <v>84.04520639252479</v>
       </c>
       <c r="Y34" t="n">
-        <v>81.24113618888416</v>
+        <v>76.92020435558243</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25151,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>245.3903245002699</v>
+        <v>241.0693926669682</v>
       </c>
       <c r="C35" t="n">
-        <v>227.9293746077969</v>
+        <v>223.6084427744952</v>
       </c>
       <c r="D35" t="n">
-        <v>217.3395244574723</v>
+        <v>213.0185926241706</v>
       </c>
       <c r="E35" t="n">
-        <v>244.5868529090511</v>
+        <v>240.2659210757494</v>
       </c>
       <c r="F35" t="n">
-        <v>269.5325285785008</v>
+        <v>265.2115967451991</v>
       </c>
       <c r="G35" t="n">
-        <v>277.9592203519244</v>
+        <v>273.6382885186227</v>
       </c>
       <c r="H35" t="n">
-        <v>202.1312849525565</v>
+        <v>197.8103531192548</v>
       </c>
       <c r="I35" t="n">
-        <v>73.13237240719528</v>
+        <v>68.81144057389355</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25199,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>12.52560077793905</v>
+        <v>8.204668944637319</v>
       </c>
       <c r="S35" t="n">
-        <v>71.67655242303471</v>
+        <v>67.35562058973298</v>
       </c>
       <c r="T35" t="n">
-        <v>76.12661927779632</v>
+        <v>81.43140056761899</v>
       </c>
       <c r="U35" t="n">
-        <v>105.5238076257779</v>
+        <v>109.6812039113241</v>
       </c>
       <c r="V35" t="n">
-        <v>180.7830281837999</v>
+        <v>186.0878094736225</v>
       </c>
       <c r="W35" t="n">
-        <v>202.271738431078</v>
+        <v>207.5765197209006</v>
       </c>
       <c r="X35" t="n">
-        <v>232.3875835152584</v>
+        <v>228.0666516819567</v>
       </c>
       <c r="Y35" t="n">
-        <v>248.894421492843</v>
+        <v>244.5734896595412</v>
       </c>
     </row>
     <row r="36">
@@ -25230,19 +25230,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.5639533635323</v>
+        <v>24.86873465335498</v>
       </c>
       <c r="C36" t="n">
-        <v>34.61234893643037</v>
+        <v>31.04404999180338</v>
       </c>
       <c r="D36" t="n">
-        <v>10.10154840142812</v>
+        <v>5.780616568126391</v>
       </c>
       <c r="E36" t="n">
-        <v>20.30156329219031</v>
+        <v>15.98063145888858</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>3.404763396871516</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25281,25 +25281,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>34.33965394062719</v>
+        <v>30.01872210732546</v>
       </c>
       <c r="T36" t="n">
-        <v>62.82121153161097</v>
+        <v>58.50027969830924</v>
       </c>
       <c r="U36" t="n">
-        <v>88.59786491776418</v>
+        <v>84.27693308446246</v>
       </c>
       <c r="V36" t="n">
-        <v>85.83135686309024</v>
+        <v>91.13613815291291</v>
       </c>
       <c r="W36" t="n">
-        <v>114.351465997709</v>
+        <v>110.0305341644072</v>
       </c>
       <c r="X36" t="n">
-        <v>68.42946804026684</v>
+        <v>64.10853620696511</v>
       </c>
       <c r="Y36" t="n">
-        <v>58.71346549096932</v>
+        <v>64.018246780792</v>
       </c>
     </row>
     <row r="37">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32.86274989560226</v>
+        <v>38.16753118542493</v>
       </c>
       <c r="C37" t="n">
-        <v>29.9033039354172</v>
+        <v>25.58237210211547</v>
       </c>
       <c r="D37" t="n">
-        <v>10.33589095610849</v>
+        <v>6.951024021699993</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>4.769513650056808</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>3.756599026418883</v>
       </c>
       <c r="G37" t="n">
-        <v>30.64746219524812</v>
+        <v>26.3265303619464</v>
       </c>
       <c r="H37" t="n">
-        <v>24.88365534422894</v>
+        <v>20.56272351092721</v>
       </c>
       <c r="I37" t="n">
-        <v>18.10695776404765</v>
+        <v>13.78602593074592</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>39.94987421395885</v>
+        <v>35.62894238065712</v>
       </c>
       <c r="S37" t="n">
-        <v>86.67308087376162</v>
+        <v>82.35214904045989</v>
       </c>
       <c r="T37" t="n">
-        <v>90.60207226507086</v>
+        <v>86.28114043176913</v>
       </c>
       <c r="U37" t="n">
-        <v>148.9755121932803</v>
+        <v>144.6545803599785</v>
       </c>
       <c r="V37" t="n">
-        <v>114.7941261606174</v>
+        <v>110.4731943273156</v>
       </c>
       <c r="W37" t="n">
-        <v>149.1794811733804</v>
+        <v>144.8585493400786</v>
       </c>
       <c r="X37" t="n">
-        <v>78.74042510270212</v>
+        <v>84.04520639252479</v>
       </c>
       <c r="Y37" t="n">
-        <v>81.24113618888416</v>
+        <v>76.92020435558243</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25388,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>235.7646113771455</v>
+        <v>241.0693926669682</v>
       </c>
       <c r="C38" t="n">
-        <v>227.9293746077969</v>
+        <v>223.6084427744952</v>
       </c>
       <c r="D38" t="n">
-        <v>217.3395244574723</v>
+        <v>213.0185926241706</v>
       </c>
       <c r="E38" t="n">
-        <v>244.5868529090511</v>
+        <v>240.2659210757494</v>
       </c>
       <c r="F38" t="n">
-        <v>259.9068154553764</v>
+        <v>265.2115967451991</v>
       </c>
       <c r="G38" t="n">
-        <v>277.9592203519244</v>
+        <v>273.6382885186227</v>
       </c>
       <c r="H38" t="n">
-        <v>202.1312849525565</v>
+        <v>197.8103531192548</v>
       </c>
       <c r="I38" t="n">
-        <v>63.50665928407087</v>
+        <v>68.81144057389355</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25436,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>12.52560077793905</v>
+        <v>8.204668944637319</v>
       </c>
       <c r="S38" t="n">
-        <v>71.67655242303471</v>
+        <v>67.35562058973298</v>
       </c>
       <c r="T38" t="n">
-        <v>85.75233240092072</v>
+        <v>81.43140056761899</v>
       </c>
       <c r="U38" t="n">
-        <v>114.0021357446259</v>
+        <v>109.6812039113241</v>
       </c>
       <c r="V38" t="n">
-        <v>190.4087413069243</v>
+        <v>186.0878094736225</v>
       </c>
       <c r="W38" t="n">
-        <v>211.8974515542024</v>
+        <v>207.5765197209006</v>
       </c>
       <c r="X38" t="n">
-        <v>232.3875835152584</v>
+        <v>228.0666516819567</v>
       </c>
       <c r="Y38" t="n">
-        <v>240.416093373995</v>
+        <v>244.5734896595412</v>
       </c>
     </row>
     <row r="39">
@@ -25467,19 +25467,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29.18966648665671</v>
+        <v>24.86873465335498</v>
       </c>
       <c r="C39" t="n">
-        <v>34.61234893643037</v>
+        <v>31.04404999180338</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4758352783037125</v>
+        <v>5.780616568126391</v>
       </c>
       <c r="E39" t="n">
-        <v>10.6758501690659</v>
+        <v>15.98063145888858</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>3.404763396871516</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25518,25 +25518,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>34.33965394062719</v>
+        <v>30.01872210732546</v>
       </c>
       <c r="T39" t="n">
-        <v>62.82121153161097</v>
+        <v>58.50027969830924</v>
       </c>
       <c r="U39" t="n">
-        <v>88.59786491776418</v>
+        <v>84.27693308446246</v>
       </c>
       <c r="V39" t="n">
-        <v>95.45706998621463</v>
+        <v>91.13613815291291</v>
       </c>
       <c r="W39" t="n">
-        <v>114.351465997709</v>
+        <v>110.0305341644072</v>
       </c>
       <c r="X39" t="n">
-        <v>68.42946804026684</v>
+        <v>64.10853620696511</v>
       </c>
       <c r="Y39" t="n">
-        <v>58.71346549096932</v>
+        <v>64.018246780792</v>
       </c>
     </row>
     <row r="40">
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>42.48846301872666</v>
+        <v>38.16753118542493</v>
       </c>
       <c r="C40" t="n">
-        <v>29.9033039354172</v>
+        <v>25.58237210211547</v>
       </c>
       <c r="D40" t="n">
-        <v>11.27195585500172</v>
+        <v>6.951024021699993</v>
       </c>
       <c r="E40" t="n">
-        <v>9.090445483358536</v>
+        <v>4.769513650056808</v>
       </c>
       <c r="F40" t="n">
-        <v>8.077530859720611</v>
+        <v>3.756599026418883</v>
       </c>
       <c r="G40" t="n">
-        <v>30.64746219524812</v>
+        <v>26.3265303619464</v>
       </c>
       <c r="H40" t="n">
-        <v>24.88365534422894</v>
+        <v>20.56272351092721</v>
       </c>
       <c r="I40" t="n">
-        <v>18.10695776404765</v>
+        <v>13.78602593074592</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>39.94987421395885</v>
+        <v>35.62894238065712</v>
       </c>
       <c r="S40" t="n">
-        <v>78.19475275491365</v>
+        <v>82.35214904045989</v>
       </c>
       <c r="T40" t="n">
-        <v>90.60207226507086</v>
+        <v>86.28114043176913</v>
       </c>
       <c r="U40" t="n">
-        <v>148.9755121932803</v>
+        <v>144.6545803599785</v>
       </c>
       <c r="V40" t="n">
-        <v>114.7941261606174</v>
+        <v>110.4731943273156</v>
       </c>
       <c r="W40" t="n">
-        <v>139.553768050256</v>
+        <v>144.8585493400786</v>
       </c>
       <c r="X40" t="n">
-        <v>78.74042510270212</v>
+        <v>84.04520639252479</v>
       </c>
       <c r="Y40" t="n">
-        <v>71.61542306575976</v>
+        <v>76.92020435558243</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>253.3770665896247</v>
+        <v>249.056134756323</v>
       </c>
       <c r="C41" t="n">
-        <v>235.9161166971517</v>
+        <v>231.59518486385</v>
       </c>
       <c r="D41" t="n">
-        <v>225.3262665468271</v>
+        <v>221.0053347135254</v>
       </c>
       <c r="E41" t="n">
-        <v>252.573594998406</v>
+        <v>248.2526631651043</v>
       </c>
       <c r="F41" t="n">
-        <v>277.5192706678556</v>
+        <v>273.1983388345539</v>
       </c>
       <c r="G41" t="n">
-        <v>285.9459624412792</v>
+        <v>281.6250306079775</v>
       </c>
       <c r="H41" t="n">
-        <v>210.1180270419113</v>
+        <v>205.7970952086096</v>
       </c>
       <c r="I41" t="n">
-        <v>81.11911449655008</v>
+        <v>76.79818266324838</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>12.03401474844588</v>
+        <v>16.19141103399215</v>
       </c>
       <c r="S41" t="n">
-        <v>79.66329451238951</v>
+        <v>75.34236267908781</v>
       </c>
       <c r="T41" t="n">
-        <v>93.73907449027553</v>
+        <v>89.41814265697383</v>
       </c>
       <c r="U41" t="n">
-        <v>121.9888778339807</v>
+        <v>117.667946000679</v>
       </c>
       <c r="V41" t="n">
-        <v>188.7697702731547</v>
+        <v>194.0745515629774</v>
       </c>
       <c r="W41" t="n">
-        <v>210.2584805204328</v>
+        <v>215.5632618102555</v>
       </c>
       <c r="X41" t="n">
-        <v>230.7486124814888</v>
+        <v>236.0533937713115</v>
       </c>
       <c r="Y41" t="n">
-        <v>256.8811635821978</v>
+        <v>252.5602317488961</v>
       </c>
     </row>
     <row r="42">
@@ -25704,22 +25704,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.69808045716353</v>
+        <v>32.85547674270981</v>
       </c>
       <c r="C42" t="n">
-        <v>43.35172391445991</v>
+        <v>39.03079208115821</v>
       </c>
       <c r="D42" t="n">
-        <v>18.08829049078292</v>
+        <v>13.76735865748122</v>
       </c>
       <c r="E42" t="n">
-        <v>28.28830538154511</v>
+        <v>23.96737354824342</v>
       </c>
       <c r="F42" t="n">
-        <v>15.71243731952805</v>
+        <v>11.39150548622635</v>
       </c>
       <c r="G42" t="n">
-        <v>7.986742089354806</v>
+        <v>3.665810256053106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25755,25 +25755,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>42.32639602998199</v>
+        <v>38.00546419668029</v>
       </c>
       <c r="T42" t="n">
-        <v>61.18224049784137</v>
+        <v>66.48702178766408</v>
       </c>
       <c r="U42" t="n">
-        <v>96.58460700711899</v>
+        <v>92.26367517381729</v>
       </c>
       <c r="V42" t="n">
-        <v>103.4438120755694</v>
+        <v>99.12288024226774</v>
       </c>
       <c r="W42" t="n">
-        <v>112.7124949639394</v>
+        <v>118.0172762537621</v>
       </c>
       <c r="X42" t="n">
-        <v>76.41621012962165</v>
+        <v>72.09527829631995</v>
       </c>
       <c r="Y42" t="n">
-        <v>66.70020758032413</v>
+        <v>72.00498887014683</v>
       </c>
     </row>
     <row r="43">
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.47520510808147</v>
+        <v>46.15427327477977</v>
       </c>
       <c r="C43" t="n">
-        <v>37.890046024772</v>
+        <v>33.56911419147031</v>
       </c>
       <c r="D43" t="n">
-        <v>9.632984821232121</v>
+        <v>14.93776611105483</v>
       </c>
       <c r="E43" t="n">
-        <v>7.451474449588936</v>
+        <v>12.75625573941164</v>
       </c>
       <c r="F43" t="n">
-        <v>16.06427294907542</v>
+        <v>11.74334111577372</v>
       </c>
       <c r="G43" t="n">
-        <v>38.63420428460293</v>
+        <v>34.31327245130123</v>
       </c>
       <c r="H43" t="n">
-        <v>32.87039743358375</v>
+        <v>28.54946560028205</v>
       </c>
       <c r="I43" t="n">
-        <v>17.61537173455448</v>
+        <v>21.77276802010076</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>47.93661630331366</v>
+        <v>43.61568447001196</v>
       </c>
       <c r="S43" t="n">
-        <v>85.03410983999203</v>
+        <v>90.33889112981473</v>
       </c>
       <c r="T43" t="n">
-        <v>98.58881435442566</v>
+        <v>94.26788252112397</v>
       </c>
       <c r="U43" t="n">
-        <v>156.9622542826351</v>
+        <v>152.6413224493334</v>
       </c>
       <c r="V43" t="n">
-        <v>122.7808682499722</v>
+        <v>118.4599364166705</v>
       </c>
       <c r="W43" t="n">
-        <v>157.1662232627352</v>
+        <v>152.8452914294335</v>
       </c>
       <c r="X43" t="n">
-        <v>96.35288031518132</v>
+        <v>92.03194848187962</v>
       </c>
       <c r="Y43" t="n">
-        <v>89.22787827823896</v>
+        <v>84.90694644493726</v>
       </c>
     </row>
     <row r="44">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>488602.7182850761</v>
+        <v>481184.5875300774</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>488602.7182850761</v>
+        <v>481184.5875300774</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>480796.6586744089</v>
+        <v>473378.5279194101</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>572107.7554535451</v>
+        <v>572646.3614136614</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>572107.755453545</v>
+        <v>572646.3614136614</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>572107.7554535451</v>
+        <v>572646.3614136614</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>572107.7554535448</v>
+        <v>572646.3614136614</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>557112.806915623</v>
+        <v>557807.1392590115</v>
       </c>
     </row>
     <row r="16">
@@ -26317,40 +26317,40 @@
         <v>737348.7048453349</v>
       </c>
       <c r="D2" t="n">
-        <v>737348.7048453344</v>
+        <v>737348.7048453346</v>
       </c>
       <c r="E2" t="n">
-        <v>221068.8836719024</v>
+        <v>221068.8836719025</v>
       </c>
       <c r="F2" t="n">
-        <v>395658.1927044325</v>
+        <v>395658.1927044329</v>
       </c>
       <c r="G2" t="n">
         <v>395658.1927044325</v>
       </c>
       <c r="H2" t="n">
-        <v>400566.7011323849</v>
+        <v>395658.192704433</v>
       </c>
       <c r="I2" t="n">
-        <v>400566.7011323852</v>
+        <v>395658.1927044329</v>
       </c>
       <c r="J2" t="n">
-        <v>392301.4615446198</v>
+        <v>387392.9531166676</v>
       </c>
       <c r="K2" t="n">
-        <v>488983.7993107627</v>
+        <v>492500.0709341097</v>
       </c>
       <c r="L2" t="n">
-        <v>488983.7993107635</v>
+        <v>492500.0709341097</v>
       </c>
       <c r="M2" t="n">
-        <v>488983.7993107635</v>
+        <v>492500.0709341097</v>
       </c>
       <c r="N2" t="n">
-        <v>488983.7993107635</v>
+        <v>492500.0709341094</v>
       </c>
       <c r="O2" t="n">
-        <v>473106.7949764938</v>
+        <v>476787.9533585978</v>
       </c>
       <c r="P2" t="n">
         <v>193513.3299566035</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2597.104032037073</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>6389.393671483856</v>
       </c>
       <c r="K3" t="n">
-        <v>103485.4200590847</v>
+        <v>106942.165525726</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="C4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="E4" t="n">
-        <v>124455.3967726702</v>
+        <v>124982.7419867166</v>
       </c>
       <c r="F4" t="n">
-        <v>235177.4293748555</v>
+        <v>235704.7745889019</v>
       </c>
       <c r="G4" t="n">
-        <v>235177.4293748556</v>
+        <v>235704.7745889019</v>
       </c>
       <c r="H4" t="n">
-        <v>237954.4457466482</v>
+        <v>235704.7745889019</v>
       </c>
       <c r="I4" t="n">
-        <v>237954.4457466482</v>
+        <v>235704.7745889019</v>
       </c>
       <c r="J4" t="n">
-        <v>232712.7494928938</v>
+        <v>230463.0783351474</v>
       </c>
       <c r="K4" t="n">
-        <v>294027.2996994237</v>
+        <v>297120.5030663271</v>
       </c>
       <c r="L4" t="n">
-        <v>294027.2996994237</v>
+        <v>297120.5030663271</v>
       </c>
       <c r="M4" t="n">
-        <v>294027.2996994237</v>
+        <v>297120.5030663271</v>
       </c>
       <c r="N4" t="n">
-        <v>294027.2996994237</v>
+        <v>297120.5030663271</v>
       </c>
       <c r="O4" t="n">
-        <v>283958.3315520296</v>
+        <v>287156.1037334849</v>
       </c>
       <c r="P4" t="n">
-        <v>106980.0603174001</v>
+        <v>107507.4055314464</v>
       </c>
     </row>
     <row r="5">
@@ -26485,28 +26485,28 @@
         <v>7848.612913228564</v>
       </c>
       <c r="H5" t="n">
-        <v>8433.856271114528</v>
+        <v>7848.612913228564</v>
       </c>
       <c r="I5" t="n">
-        <v>8433.856271114528</v>
+        <v>7848.612913228564</v>
       </c>
       <c r="J5" t="n">
-        <v>8100.728885071578</v>
+        <v>7515.485527185614</v>
       </c>
       <c r="K5" t="n">
-        <v>12131.57550227992</v>
+        <v>11909.5885626878</v>
       </c>
       <c r="L5" t="n">
-        <v>12131.57550227992</v>
+        <v>11909.5885626878</v>
       </c>
       <c r="M5" t="n">
-        <v>12131.57550227992</v>
+        <v>11909.5885626878</v>
       </c>
       <c r="N5" t="n">
-        <v>12131.57550227992</v>
+        <v>11909.5885626878</v>
       </c>
       <c r="O5" t="n">
-        <v>11460.13808156995</v>
+        <v>11238.15114197783</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>251848.4595104161</v>
+        <v>251321.1142963697</v>
       </c>
       <c r="C6" t="n">
-        <v>251848.4595104161</v>
+        <v>251321.1142963697</v>
       </c>
       <c r="D6" t="n">
-        <v>251848.4595104156</v>
+        <v>251321.1142963695</v>
       </c>
       <c r="E6" t="n">
-        <v>86049.49060878922</v>
+        <v>85522.14539474298</v>
       </c>
       <c r="F6" t="n">
-        <v>87504.23780670017</v>
+        <v>86976.89259265419</v>
       </c>
       <c r="G6" t="n">
-        <v>152632.1504163484</v>
+        <v>152104.805202302</v>
       </c>
       <c r="H6" t="n">
-        <v>151581.295082585</v>
+        <v>152104.8052023025</v>
       </c>
       <c r="I6" t="n">
-        <v>154178.3991146224</v>
+        <v>152104.8052023024</v>
       </c>
       <c r="J6" t="n">
-        <v>145098.5894951706</v>
+        <v>143024.9955828508</v>
       </c>
       <c r="K6" t="n">
-        <v>79339.50404997444</v>
+        <v>76527.81377936876</v>
       </c>
       <c r="L6" t="n">
-        <v>182824.9241090599</v>
+        <v>183469.9793050948</v>
       </c>
       <c r="M6" t="n">
-        <v>182824.9241090599</v>
+        <v>183469.9793050948</v>
       </c>
       <c r="N6" t="n">
-        <v>182824.9241090599</v>
+        <v>183469.9793050945</v>
       </c>
       <c r="O6" t="n">
-        <v>177688.3253428942</v>
+        <v>178393.6984831351</v>
       </c>
       <c r="P6" t="n">
-        <v>86533.26963920347</v>
+        <v>86005.92442515709</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>89.39663285141508</v>
       </c>
       <c r="K2" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="L2" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="M2" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="N2" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="O2" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26805,28 +26805,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>7.98674208935482</v>
       </c>
       <c r="K2" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>7.98674208935482</v>
       </c>
       <c r="P2" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
     </row>
     <row r="3">
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="C29" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="D29" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="E29" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="F29" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="G29" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="H29" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="I29" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -29557,28 +29557,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="S29" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="T29" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="U29" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="V29" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="W29" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="X29" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="Y29" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
     </row>
     <row r="30">
@@ -29588,19 +29588,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="C30" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="D30" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="E30" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="F30" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -29639,25 +29639,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="T30" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="U30" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="V30" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="W30" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="X30" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="Y30" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
     </row>
     <row r="31">
@@ -29667,28 +29667,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="C31" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="D31" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="E31" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="F31" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="G31" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="H31" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="I31" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="J31" t="n">
         <v>93.35918011667277</v>
@@ -29715,28 +29715,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="S31" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="T31" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="U31" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="V31" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="W31" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="X31" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="Y31" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="C32" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="D32" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="E32" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="F32" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="G32" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="H32" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="I32" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -29794,28 +29794,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="S32" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="T32" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="U32" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="V32" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="W32" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="X32" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="Y32" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
     </row>
     <row r="33">
@@ -29825,19 +29825,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="C33" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="D33" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="E33" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="F33" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -29876,25 +29876,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="T33" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="U33" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="V33" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="W33" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="X33" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="Y33" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
     </row>
     <row r="34">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="C34" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="D34" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="E34" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="F34" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="G34" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="H34" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="I34" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -29952,28 +29952,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="S34" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="T34" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="U34" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="V34" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="W34" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="X34" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="Y34" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="C35" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="D35" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="E35" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="F35" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="G35" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="H35" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="I35" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30031,28 +30031,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="S35" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="T35" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="U35" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="V35" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="W35" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="X35" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="Y35" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
     </row>
     <row r="36">
@@ -30062,19 +30062,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="C36" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="D36" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="E36" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="F36" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -30113,25 +30113,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="T36" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="U36" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="V36" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="W36" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="X36" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="Y36" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
     </row>
     <row r="37">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="C37" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="D37" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="E37" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="F37" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="G37" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="H37" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="I37" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -30189,28 +30189,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="S37" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="T37" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="U37" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="V37" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="W37" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="X37" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="Y37" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="C38" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="D38" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="E38" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="F38" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="G38" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="H38" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="I38" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30268,28 +30268,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="S38" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="T38" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="U38" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="V38" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="W38" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="X38" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="Y38" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
     </row>
     <row r="39">
@@ -30299,19 +30299,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="C39" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="D39" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="E39" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="F39" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -30350,25 +30350,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="T39" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="U39" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="V39" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="W39" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="X39" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="Y39" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
     </row>
     <row r="40">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="C40" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="D40" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="E40" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="F40" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="G40" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="H40" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="I40" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -30426,28 +30426,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="S40" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="T40" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="U40" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="V40" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="W40" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="X40" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
       <c r="Y40" t="n">
-        <v>137.3435171632106</v>
+        <v>141.6644489965124</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="C41" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="D41" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="E41" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="F41" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="G41" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="H41" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="I41" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30505,28 +30505,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="S41" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="T41" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="U41" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="V41" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="W41" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="X41" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="Y41" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
     </row>
     <row r="42">
@@ -30536,22 +30536,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="C42" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="D42" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="E42" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="F42" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="G42" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -30587,25 +30587,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="T42" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="U42" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="V42" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="W42" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="X42" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="Y42" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
     </row>
     <row r="43">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="C43" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="D43" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="E43" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="F43" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="G43" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="H43" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="I43" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -30663,28 +30663,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="S43" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="T43" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="U43" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="V43" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="W43" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="X43" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
       <c r="Y43" t="n">
-        <v>129.3567750738558</v>
+        <v>133.6777069071575</v>
       </c>
     </row>
     <row r="44">
@@ -36127,16 +36127,16 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>9.236795421179986</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>9.236795421179986</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,16 +36282,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>9.236795421179986</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36364,16 +36364,16 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>9.236795421179986</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>9.236795421179986</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36519,16 +36519,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>9.236795421179986</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -36598,16 +36598,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>9.236795421179986</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>9.236795421179986</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36756,16 +36756,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>9.236795421179986</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36832,16 +36832,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>9.236795421179986</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>9.236795421179986</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,13 +36923,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36993,16 +36993,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>9.236795421179986</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37072,16 +37072,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>9.236795421179986</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>9.236795421179986</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37230,16 +37230,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>9.236795421179986</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37306,19 +37306,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>9.236795421179986</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37394,16 +37394,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>9.236795421179986</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,16 +37467,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>9.236795421179986</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37543,16 +37543,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>9.236795421179986</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -37631,16 +37631,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>9.236795421179986</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,16 +37704,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>9.236795421179986</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37786,16 +37786,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>9.236795421179986</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>9.236795421179986</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37941,16 +37941,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>9.625713123124406</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>9.236795421179986</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1457308.322383312</v>
+        <v>1439883.289278775</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5413711.842050619</v>
+        <v>5117489.51767665</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11223948.89992745</v>
+        <v>11743522.64553508</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6521426.997819182</v>
+        <v>6490339.485792949</v>
       </c>
     </row>
     <row r="11">
@@ -2363,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2445,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="27">
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>11.80515118300277</v>
       </c>
     </row>
     <row r="28">
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2798,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2852,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2916,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>11.80515118300276</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2934,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3041,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3089,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3156,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3174,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="34">
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3275,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3320,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="36">
@@ -3393,16 +3395,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3560,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="39">
@@ -3630,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="40">
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3752,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="42">
@@ -3867,19 +3869,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3940,22 +3942,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3989,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="45">
@@ -4053,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4113,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4147,16 +4149,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>52.77779986093952</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>91.61126447425255</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>65.73218245947393</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>65.73218245947393</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>39.85310044469531</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>39.85310044469531</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>13.9740184299167</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>13.9740184299167</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>91.61126447425255</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>65.73218245947393</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>27.413711578255</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>52.77779986093952</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>27.413711578255</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>52.77779986093952</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>2.049623295570477</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>27.413711578255</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>52.77779986093952</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
   </sheetData>
@@ -9638,22 +9640,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L23" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M23" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N23" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O23" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P23" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9726,16 +9728,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9799,16 +9801,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M25" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N25" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O25" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P25" t="n">
         <v>135.0065633140411</v>
@@ -9878,19 +9880,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L26" t="n">
-        <v>235.7664149699872</v>
+        <v>260.3515428840269</v>
       </c>
       <c r="M26" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N26" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O26" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P26" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9957,22 +9959,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>163.1395076939139</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10036,16 +10038,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M28" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N28" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O28" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
@@ -10115,19 +10117,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>235.7664149699872</v>
+        <v>260.3515428840269</v>
       </c>
       <c r="M29" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N29" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P29" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10197,19 +10199,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10273,16 +10275,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M31" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N31" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O31" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
         <v>135.0065633140411</v>
@@ -10352,19 +10354,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M32" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
-        <v>229.4130635965909</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O32" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P32" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10434,19 +10436,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>164.5669020000612</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10510,16 +10512,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M34" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N34" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O34" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
@@ -10589,19 +10591,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L35" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M35" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N35" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P35" t="n">
-        <v>231.2329957552695</v>
+        <v>255.8181236693092</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10674,16 +10676,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>158.5595353283699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10747,16 +10749,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M37" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N37" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O37" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
         <v>135.0065633140411</v>
@@ -10829,16 +10831,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M38" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N38" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O38" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P38" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10905,7 +10907,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
@@ -10914,13 +10916,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>164.5669020000612</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10984,16 +10986,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M40" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N40" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O40" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
         <v>135.0065633140411</v>
@@ -11060,19 +11062,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L41" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O41" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P41" t="n">
         <v>231.2329957552695</v>
@@ -11139,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
@@ -11154,10 +11156,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>158.5595353283699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11221,16 +11223,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M43" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N43" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O43" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
         <v>135.0065633140411</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L44" t="n">
         <v>235.7664149699872</v>
@@ -11306,13 +11308,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>164.5669020000612</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11458,16 +11460,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M46" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N46" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O46" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
         <v>135.0065633140411</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>370.7845523088681</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C11" t="n">
-        <v>353.323602416395</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D11" t="n">
-        <v>342.7337522660704</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E11" t="n">
-        <v>369.9810807176493</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F11" t="n">
-        <v>394.9267563870989</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G11" t="n">
-        <v>403.3534481605225</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H11" t="n">
-        <v>327.5255127611546</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I11" t="n">
-        <v>198.5266002157934</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>137.9198285865372</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S11" t="n">
-        <v>197.0707802316328</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T11" t="n">
-        <v>211.1465602095188</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U11" t="n">
-        <v>239.396363553224</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V11" t="n">
-        <v>315.8029691155224</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W11" t="n">
-        <v>337.2916793628005</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X11" t="n">
-        <v>357.7818113238565</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y11" t="n">
-        <v>374.2886493014411</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="12">
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>154.5838942952548</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C12" t="n">
-        <v>160.7592096337032</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D12" t="n">
-        <v>135.4957762100262</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E12" t="n">
-        <v>145.6957911007884</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F12" t="n">
-        <v>133.1199230387714</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G12" t="n">
-        <v>125.3942278085981</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H12" t="n">
-        <v>100.2861548818839</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I12" t="n">
-        <v>77.44734349680256</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>88.20854479803062</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S12" t="n">
-        <v>159.7338817492253</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T12" t="n">
-        <v>188.2154393402091</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U12" t="n">
-        <v>213.9920927263623</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V12" t="n">
-        <v>220.8512977948128</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W12" t="n">
-        <v>239.7456938063071</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X12" t="n">
-        <v>193.823695848865</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y12" t="n">
-        <v>193.7334064226918</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="13">
@@ -23413,34 +23415,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>167.8826908273248</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C13" t="n">
-        <v>155.2975317440153</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D13" t="n">
-        <v>136.6661836635998</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E13" t="n">
-        <v>134.4846732919567</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4717586683187</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G13" t="n">
-        <v>156.0416900038462</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H13" t="n">
-        <v>150.2778831528271</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I13" t="n">
-        <v>143.5011855726458</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J13" t="n">
-        <v>81.40989076206026</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K13" t="n">
-        <v>10.32020247127033</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.21275389708187</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.344102022557</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S13" t="n">
-        <v>212.0673086823597</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T13" t="n">
-        <v>215.996300073669</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U13" t="n">
-        <v>274.3697400018784</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V13" t="n">
-        <v>240.1883539692155</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W13" t="n">
-        <v>274.5737089819785</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X13" t="n">
-        <v>213.7603660344246</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.6353639974823</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>289.3746615468078</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C14" t="n">
-        <v>271.9137116543347</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D14" t="n">
-        <v>261.3238615040102</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E14" t="n">
-        <v>288.571189955589</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F14" t="n">
-        <v>313.5168656250387</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G14" t="n">
-        <v>321.9435573984623</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H14" t="n">
-        <v>246.1156219990944</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I14" t="n">
-        <v>117.1167094537331</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>56.50993782447691</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S14" t="n">
-        <v>115.6608894695726</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T14" t="n">
-        <v>129.7366694474586</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U14" t="n">
-        <v>157.9864727911637</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V14" t="n">
-        <v>234.3930783534621</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W14" t="n">
-        <v>255.8817886007402</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X14" t="n">
-        <v>276.3719205617963</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y14" t="n">
-        <v>292.8787585393808</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="15">
@@ -23571,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>73.17400353319456</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C15" t="n">
-        <v>79.34931887164296</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D15" t="n">
-        <v>54.08588544796598</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E15" t="n">
-        <v>64.28590033872817</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F15" t="n">
-        <v>51.7100322767111</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G15" t="n">
-        <v>43.98433704653786</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H15" t="n">
-        <v>18.87626411982369</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>6.798654035970358</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S15" t="n">
-        <v>78.32399098716505</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T15" t="n">
-        <v>106.8055485781488</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U15" t="n">
-        <v>132.582201964302</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V15" t="n">
-        <v>139.4414070327525</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W15" t="n">
-        <v>158.3358030442468</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X15" t="n">
-        <v>112.4138050868047</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y15" t="n">
-        <v>112.3235156606316</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>86.47280006526452</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C16" t="n">
-        <v>73.88764098195506</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D16" t="n">
-        <v>55.25629290153958</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E16" t="n">
-        <v>53.0747825298964</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F16" t="n">
-        <v>52.06186790625847</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G16" t="n">
-        <v>74.63179924178598</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H16" t="n">
-        <v>68.8679923907668</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I16" t="n">
-        <v>62.09129481058551</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>83.93421126049671</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S16" t="n">
-        <v>130.6574179202995</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T16" t="n">
-        <v>134.5864093116087</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U16" t="n">
-        <v>192.9598492398181</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V16" t="n">
-        <v>158.7784632071552</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W16" t="n">
-        <v>193.1638182199182</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X16" t="n">
-        <v>132.3504752723644</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y16" t="n">
-        <v>125.225473235422</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>289.3746615468078</v>
+        <v>282.5760075108374</v>
       </c>
       <c r="C17" t="n">
-        <v>271.9137116543347</v>
+        <v>265.1150576183644</v>
       </c>
       <c r="D17" t="n">
-        <v>261.3238615040102</v>
+        <v>254.5252074680398</v>
       </c>
       <c r="E17" t="n">
-        <v>288.571189955589</v>
+        <v>281.7725359196186</v>
       </c>
       <c r="F17" t="n">
-        <v>313.5168656250387</v>
+        <v>306.7182115890683</v>
       </c>
       <c r="G17" t="n">
-        <v>321.9435573984623</v>
+        <v>315.1449033624919</v>
       </c>
       <c r="H17" t="n">
-        <v>246.1156219990944</v>
+        <v>239.316967963124</v>
       </c>
       <c r="I17" t="n">
-        <v>117.1167094537331</v>
+        <v>110.3180554177628</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>56.50993782447691</v>
+        <v>49.71128378850655</v>
       </c>
       <c r="S17" t="n">
-        <v>115.6608894695726</v>
+        <v>108.8622354336022</v>
       </c>
       <c r="T17" t="n">
-        <v>129.7366694474586</v>
+        <v>122.9380154114882</v>
       </c>
       <c r="U17" t="n">
-        <v>157.9864727911637</v>
+        <v>151.1878187551933</v>
       </c>
       <c r="V17" t="n">
-        <v>234.3930783534621</v>
+        <v>227.5944243174918</v>
       </c>
       <c r="W17" t="n">
-        <v>255.8817886007402</v>
+        <v>249.0831345647699</v>
       </c>
       <c r="X17" t="n">
-        <v>276.3719205617963</v>
+        <v>269.5732665258259</v>
       </c>
       <c r="Y17" t="n">
-        <v>292.8787585393808</v>
+        <v>286.0801045034104</v>
       </c>
     </row>
     <row r="18">
@@ -23808,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>73.17400353319456</v>
+        <v>66.37534949722421</v>
       </c>
       <c r="C18" t="n">
-        <v>79.34931887164296</v>
+        <v>72.55066483567261</v>
       </c>
       <c r="D18" t="n">
-        <v>54.08588544796598</v>
+        <v>47.28723141199562</v>
       </c>
       <c r="E18" t="n">
-        <v>64.28590033872817</v>
+        <v>57.48724630275781</v>
       </c>
       <c r="F18" t="n">
-        <v>51.7100322767111</v>
+        <v>44.91137824074075</v>
       </c>
       <c r="G18" t="n">
-        <v>43.98433704653786</v>
+        <v>37.1856830105675</v>
       </c>
       <c r="H18" t="n">
-        <v>18.87626411982369</v>
+        <v>12.07761008385333</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>78.32399098716505</v>
+        <v>71.52533695119469</v>
       </c>
       <c r="T18" t="n">
-        <v>106.8055485781488</v>
+        <v>100.0068945421785</v>
       </c>
       <c r="U18" t="n">
-        <v>132.582201964302</v>
+        <v>125.7835479283317</v>
       </c>
       <c r="V18" t="n">
-        <v>139.4414070327525</v>
+        <v>132.6427529967821</v>
       </c>
       <c r="W18" t="n">
-        <v>158.3358030442468</v>
+        <v>151.5371490082765</v>
       </c>
       <c r="X18" t="n">
-        <v>112.4138050868047</v>
+        <v>105.6151510508343</v>
       </c>
       <c r="Y18" t="n">
-        <v>112.3235156606316</v>
+        <v>105.5248616246612</v>
       </c>
     </row>
     <row r="19">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>86.47280006526452</v>
+        <v>79.67414602929416</v>
       </c>
       <c r="C19" t="n">
-        <v>73.88764098195506</v>
+        <v>67.0889869459847</v>
       </c>
       <c r="D19" t="n">
-        <v>55.25629290153958</v>
+        <v>48.45763886556922</v>
       </c>
       <c r="E19" t="n">
-        <v>53.0747825298964</v>
+        <v>46.27612849392604</v>
       </c>
       <c r="F19" t="n">
-        <v>52.06186790625847</v>
+        <v>45.26321387028811</v>
       </c>
       <c r="G19" t="n">
-        <v>74.63179924178598</v>
+        <v>67.83314520581563</v>
       </c>
       <c r="H19" t="n">
-        <v>68.8679923907668</v>
+        <v>62.06933835479644</v>
       </c>
       <c r="I19" t="n">
-        <v>62.09129481058551</v>
+        <v>55.29264077461515</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>83.93421126049671</v>
+        <v>77.13555722452635</v>
       </c>
       <c r="S19" t="n">
-        <v>130.6574179202995</v>
+        <v>123.8587638843291</v>
       </c>
       <c r="T19" t="n">
-        <v>134.5864093116087</v>
+        <v>127.7877552756384</v>
       </c>
       <c r="U19" t="n">
-        <v>192.9598492398181</v>
+        <v>186.1611952038477</v>
       </c>
       <c r="V19" t="n">
-        <v>158.7784632071552</v>
+        <v>151.9798091711849</v>
       </c>
       <c r="W19" t="n">
-        <v>193.1638182199182</v>
+        <v>186.3651641839479</v>
       </c>
       <c r="X19" t="n">
-        <v>132.3504752723644</v>
+        <v>125.551821236394</v>
       </c>
       <c r="Y19" t="n">
-        <v>125.225473235422</v>
+        <v>118.4268191994517</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>289.3746615468078</v>
+        <v>282.5760075108374</v>
       </c>
       <c r="C20" t="n">
-        <v>271.9137116543347</v>
+        <v>265.1150576183644</v>
       </c>
       <c r="D20" t="n">
-        <v>261.3238615040102</v>
+        <v>254.5252074680398</v>
       </c>
       <c r="E20" t="n">
-        <v>288.571189955589</v>
+        <v>281.7725359196186</v>
       </c>
       <c r="F20" t="n">
-        <v>313.5168656250387</v>
+        <v>306.7182115890683</v>
       </c>
       <c r="G20" t="n">
-        <v>321.9435573984623</v>
+        <v>315.1449033624919</v>
       </c>
       <c r="H20" t="n">
-        <v>246.1156219990944</v>
+        <v>239.316967963124</v>
       </c>
       <c r="I20" t="n">
-        <v>117.1167094537331</v>
+        <v>110.3180554177628</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>56.50993782447691</v>
+        <v>49.71128378850655</v>
       </c>
       <c r="S20" t="n">
-        <v>115.6608894695726</v>
+        <v>108.8622354336022</v>
       </c>
       <c r="T20" t="n">
-        <v>129.7366694474586</v>
+        <v>122.9380154114882</v>
       </c>
       <c r="U20" t="n">
-        <v>157.9864727911637</v>
+        <v>151.1878187551933</v>
       </c>
       <c r="V20" t="n">
-        <v>234.3930783534621</v>
+        <v>227.5944243174918</v>
       </c>
       <c r="W20" t="n">
-        <v>255.8817886007402</v>
+        <v>249.0831345647699</v>
       </c>
       <c r="X20" t="n">
-        <v>276.3719205617963</v>
+        <v>269.5732665258259</v>
       </c>
       <c r="Y20" t="n">
-        <v>292.8787585393808</v>
+        <v>286.0801045034104</v>
       </c>
     </row>
     <row r="21">
@@ -24045,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>73.17400353319456</v>
+        <v>66.37534949722421</v>
       </c>
       <c r="C21" t="n">
-        <v>79.34931887164296</v>
+        <v>72.55066483567261</v>
       </c>
       <c r="D21" t="n">
-        <v>54.08588544796598</v>
+        <v>47.28723141199562</v>
       </c>
       <c r="E21" t="n">
-        <v>64.28590033872817</v>
+        <v>57.48724630275781</v>
       </c>
       <c r="F21" t="n">
-        <v>51.7100322767111</v>
+        <v>44.91137824074075</v>
       </c>
       <c r="G21" t="n">
-        <v>43.98433704653786</v>
+        <v>37.1856830105675</v>
       </c>
       <c r="H21" t="n">
-        <v>18.87626411982369</v>
+        <v>12.07761008385333</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>78.32399098716505</v>
+        <v>71.52533695119469</v>
       </c>
       <c r="T21" t="n">
-        <v>106.8055485781488</v>
+        <v>100.0068945421785</v>
       </c>
       <c r="U21" t="n">
-        <v>132.582201964302</v>
+        <v>125.7835479283317</v>
       </c>
       <c r="V21" t="n">
-        <v>139.4414070327525</v>
+        <v>132.6427529967821</v>
       </c>
       <c r="W21" t="n">
-        <v>158.3358030442468</v>
+        <v>151.5371490082765</v>
       </c>
       <c r="X21" t="n">
-        <v>112.4138050868047</v>
+        <v>105.6151510508343</v>
       </c>
       <c r="Y21" t="n">
-        <v>112.3235156606316</v>
+        <v>105.5248616246612</v>
       </c>
     </row>
     <row r="22">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>86.47280006526452</v>
+        <v>79.67414602929416</v>
       </c>
       <c r="C22" t="n">
-        <v>73.88764098195506</v>
+        <v>67.0889869459847</v>
       </c>
       <c r="D22" t="n">
-        <v>55.25629290153958</v>
+        <v>48.45763886556922</v>
       </c>
       <c r="E22" t="n">
-        <v>53.0747825298964</v>
+        <v>46.27612849392604</v>
       </c>
       <c r="F22" t="n">
-        <v>52.06186790625847</v>
+        <v>45.26321387028811</v>
       </c>
       <c r="G22" t="n">
-        <v>74.63179924178598</v>
+        <v>67.83314520581563</v>
       </c>
       <c r="H22" t="n">
-        <v>68.8679923907668</v>
+        <v>62.06933835479644</v>
       </c>
       <c r="I22" t="n">
-        <v>62.09129481058551</v>
+        <v>55.29264077461515</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>83.93421126049671</v>
+        <v>77.13555722452635</v>
       </c>
       <c r="S22" t="n">
-        <v>130.6574179202995</v>
+        <v>123.8587638843291</v>
       </c>
       <c r="T22" t="n">
-        <v>134.5864093116087</v>
+        <v>127.7877552756384</v>
       </c>
       <c r="U22" t="n">
-        <v>192.9598492398181</v>
+        <v>186.1611952038477</v>
       </c>
       <c r="V22" t="n">
-        <v>158.7784632071552</v>
+        <v>151.9798091711849</v>
       </c>
       <c r="W22" t="n">
-        <v>193.1638182199182</v>
+        <v>186.3651641839479</v>
       </c>
       <c r="X22" t="n">
-        <v>132.3504752723644</v>
+        <v>125.551821236394</v>
       </c>
       <c r="Y22" t="n">
-        <v>125.225473235422</v>
+        <v>118.4268191994517</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>289.3746615468078</v>
+        <v>282.5760075108374</v>
       </c>
       <c r="C23" t="n">
-        <v>271.9137116543347</v>
+        <v>265.1150576183644</v>
       </c>
       <c r="D23" t="n">
-        <v>261.3238615040102</v>
+        <v>254.5252074680398</v>
       </c>
       <c r="E23" t="n">
-        <v>288.571189955589</v>
+        <v>281.7725359196186</v>
       </c>
       <c r="F23" t="n">
-        <v>313.5168656250387</v>
+        <v>306.7182115890683</v>
       </c>
       <c r="G23" t="n">
-        <v>321.9435573984623</v>
+        <v>315.1449033624919</v>
       </c>
       <c r="H23" t="n">
-        <v>246.1156219990944</v>
+        <v>239.316967963124</v>
       </c>
       <c r="I23" t="n">
-        <v>117.1167094537331</v>
+        <v>110.3180554177628</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>56.50993782447691</v>
+        <v>24.09099259387572</v>
       </c>
       <c r="S23" t="n">
-        <v>115.6608894695726</v>
+        <v>83.24194423897137</v>
       </c>
       <c r="T23" t="n">
-        <v>129.7366694474586</v>
+        <v>122.9380154114882</v>
       </c>
       <c r="U23" t="n">
-        <v>157.9864727911637</v>
+        <v>125.5675275605625</v>
       </c>
       <c r="V23" t="n">
-        <v>234.3930783534621</v>
+        <v>205.0280718332609</v>
       </c>
       <c r="W23" t="n">
-        <v>255.8817886007402</v>
+        <v>249.0831345647699</v>
       </c>
       <c r="X23" t="n">
-        <v>276.3719205617963</v>
+        <v>269.5732665258259</v>
       </c>
       <c r="Y23" t="n">
-        <v>292.8787585393808</v>
+        <v>286.0801045034104</v>
       </c>
     </row>
     <row r="24">
@@ -24282,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>73.17400353319456</v>
+        <v>40.75505830259338</v>
       </c>
       <c r="C24" t="n">
-        <v>79.34931887164296</v>
+        <v>72.55066483567261</v>
       </c>
       <c r="D24" t="n">
-        <v>54.08588544796598</v>
+        <v>24.72087892776479</v>
       </c>
       <c r="E24" t="n">
-        <v>64.28590033872817</v>
+        <v>57.48724630275781</v>
       </c>
       <c r="F24" t="n">
-        <v>51.7100322767111</v>
+        <v>44.91137824074075</v>
       </c>
       <c r="G24" t="n">
-        <v>43.98433704653786</v>
+        <v>37.1856830105675</v>
       </c>
       <c r="H24" t="n">
-        <v>18.87626411982369</v>
+        <v>12.07761008385333</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24330,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>78.32399098716505</v>
+        <v>45.90504575656386</v>
       </c>
       <c r="T24" t="n">
-        <v>106.8055485781488</v>
+        <v>74.38660334754763</v>
       </c>
       <c r="U24" t="n">
-        <v>132.582201964302</v>
+        <v>125.7835479283317</v>
       </c>
       <c r="V24" t="n">
-        <v>139.4414070327525</v>
+        <v>132.6427529967821</v>
       </c>
       <c r="W24" t="n">
-        <v>158.3358030442468</v>
+        <v>151.5371490082765</v>
       </c>
       <c r="X24" t="n">
-        <v>112.4138050868047</v>
+        <v>105.6151510508343</v>
       </c>
       <c r="Y24" t="n">
-        <v>112.3235156606316</v>
+        <v>105.5248616246612</v>
       </c>
     </row>
     <row r="25">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>86.47280006526452</v>
+        <v>79.67414602929416</v>
       </c>
       <c r="C25" t="n">
-        <v>73.88764098195506</v>
+        <v>67.0889869459847</v>
       </c>
       <c r="D25" t="n">
-        <v>55.25629290153958</v>
+        <v>48.45763886556922</v>
       </c>
       <c r="E25" t="n">
-        <v>53.0747825298964</v>
+        <v>46.27612849392604</v>
       </c>
       <c r="F25" t="n">
-        <v>52.06186790625847</v>
+        <v>45.26321387028811</v>
       </c>
       <c r="G25" t="n">
-        <v>74.63179924178598</v>
+        <v>67.83314520581563</v>
       </c>
       <c r="H25" t="n">
-        <v>68.8679923907668</v>
+        <v>62.06933835479644</v>
       </c>
       <c r="I25" t="n">
-        <v>62.09129481058551</v>
+        <v>55.29264077461515</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>83.93421126049671</v>
+        <v>51.51526602989552</v>
       </c>
       <c r="S25" t="n">
-        <v>130.6574179202995</v>
+        <v>98.23847268969828</v>
       </c>
       <c r="T25" t="n">
-        <v>134.5864093116087</v>
+        <v>105.2214027914075</v>
       </c>
       <c r="U25" t="n">
-        <v>192.9598492398181</v>
+        <v>186.1611952038477</v>
       </c>
       <c r="V25" t="n">
-        <v>158.7784632071552</v>
+        <v>151.9798091711849</v>
       </c>
       <c r="W25" t="n">
-        <v>193.1638182199182</v>
+        <v>186.3651641839479</v>
       </c>
       <c r="X25" t="n">
-        <v>132.3504752723644</v>
+        <v>99.93153004176318</v>
       </c>
       <c r="Y25" t="n">
-        <v>125.225473235422</v>
+        <v>118.4268191994517</v>
       </c>
     </row>
     <row r="26">
@@ -24491,10 +24493,10 @@
         <v>60.4724850897346</v>
       </c>
       <c r="S26" t="n">
-        <v>119.6234367348303</v>
+        <v>94.00314554019943</v>
       </c>
       <c r="T26" t="n">
-        <v>133.6992167127163</v>
+        <v>108.0789255180855</v>
       </c>
       <c r="U26" t="n">
         <v>161.9490200564214</v>
@@ -24503,13 +24505,13 @@
         <v>238.3556256187198</v>
       </c>
       <c r="W26" t="n">
-        <v>259.8443358659979</v>
+        <v>237.2779833817671</v>
       </c>
       <c r="X26" t="n">
         <v>280.334467827054</v>
       </c>
       <c r="Y26" t="n">
-        <v>296.8413058046385</v>
+        <v>271.2210146100077</v>
       </c>
     </row>
     <row r="27">
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>82.28653825242274</v>
+        <v>56.66624705779191</v>
       </c>
       <c r="T27" t="n">
         <v>110.7680958434065</v>
       </c>
       <c r="U27" t="n">
-        <v>136.5447492295597</v>
+        <v>110.9244580349289</v>
       </c>
       <c r="V27" t="n">
         <v>143.4039542980102</v>
       </c>
       <c r="W27" t="n">
-        <v>162.2983503095045</v>
+        <v>136.6780591148737</v>
       </c>
       <c r="X27" t="n">
         <v>116.3763523520624</v>
       </c>
       <c r="Y27" t="n">
-        <v>116.2860629258893</v>
+        <v>104.4809117428865</v>
       </c>
     </row>
     <row r="28">
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>87.89675852575441</v>
+        <v>65.33040604152359</v>
       </c>
       <c r="S28" t="n">
-        <v>134.6199651855572</v>
+        <v>108.9996739909264</v>
       </c>
       <c r="T28" t="n">
-        <v>138.5489565768664</v>
+        <v>112.9286653822356</v>
       </c>
       <c r="U28" t="n">
-        <v>196.9223965050758</v>
+        <v>171.302105310445</v>
       </c>
       <c r="V28" t="n">
         <v>162.7410104724129</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.0693926669682</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C29" t="n">
-        <v>223.6084427744952</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D29" t="n">
-        <v>213.0185926241706</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E29" t="n">
-        <v>240.2659210757494</v>
+        <v>266.9134460262159</v>
       </c>
       <c r="F29" t="n">
-        <v>265.2115967451991</v>
+        <v>291.8591216956655</v>
       </c>
       <c r="G29" t="n">
-        <v>273.6382885186227</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H29" t="n">
-        <v>197.8103531192548</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I29" t="n">
-        <v>68.81144057389355</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>8.204668944637319</v>
+        <v>34.85219389510377</v>
       </c>
       <c r="S29" t="n">
-        <v>67.35562058973298</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T29" t="n">
-        <v>81.43140056761899</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U29" t="n">
-        <v>109.6812039113241</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V29" t="n">
-        <v>186.0878094736225</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W29" t="n">
-        <v>207.5765197209006</v>
+        <v>237.2779833817671</v>
       </c>
       <c r="X29" t="n">
-        <v>228.0666516819567</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y29" t="n">
-        <v>244.5734896595412</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="30">
@@ -24756,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>24.86873465335498</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C30" t="n">
-        <v>31.04404999180338</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D30" t="n">
-        <v>5.780616568126391</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E30" t="n">
-        <v>15.98063145888858</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F30" t="n">
-        <v>3.404763396871516</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24807,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>30.01872210732546</v>
+        <v>56.66624705779191</v>
       </c>
       <c r="T30" t="n">
-        <v>58.50027969830924</v>
+        <v>98.96294466040376</v>
       </c>
       <c r="U30" t="n">
-        <v>84.27693308446246</v>
+        <v>110.9244580349289</v>
       </c>
       <c r="V30" t="n">
-        <v>91.13613815291291</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W30" t="n">
-        <v>110.0305341644072</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X30" t="n">
-        <v>64.10853620696511</v>
+        <v>90.75606115743156</v>
       </c>
       <c r="Y30" t="n">
-        <v>64.018246780792</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="31">
@@ -24835,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38.16753118542493</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C31" t="n">
-        <v>25.58237210211547</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D31" t="n">
-        <v>6.951024021699993</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E31" t="n">
-        <v>4.769513650056808</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F31" t="n">
-        <v>3.756599026418883</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G31" t="n">
-        <v>26.3265303619464</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H31" t="n">
-        <v>20.56272351092721</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I31" t="n">
-        <v>13.78602593074592</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>35.62894238065712</v>
+        <v>62.27646733112358</v>
       </c>
       <c r="S31" t="n">
-        <v>82.35214904045989</v>
+        <v>108.9996739909264</v>
       </c>
       <c r="T31" t="n">
-        <v>86.28114043176913</v>
+        <v>112.9286653822356</v>
       </c>
       <c r="U31" t="n">
-        <v>144.6545803599785</v>
+        <v>174.356044020845</v>
       </c>
       <c r="V31" t="n">
-        <v>110.4731943273156</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W31" t="n">
-        <v>144.8585493400786</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X31" t="n">
-        <v>84.04520639252479</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y31" t="n">
-        <v>76.92020435558243</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0693926669682</v>
+        <v>277.9043287895041</v>
       </c>
       <c r="C32" t="n">
-        <v>223.6084427744952</v>
+        <v>260.4433788970311</v>
       </c>
       <c r="D32" t="n">
-        <v>213.0185926241706</v>
+        <v>249.8535287467065</v>
       </c>
       <c r="E32" t="n">
-        <v>240.2659210757494</v>
+        <v>277.1008571982853</v>
       </c>
       <c r="F32" t="n">
-        <v>265.2115967451991</v>
+        <v>302.046532867735</v>
       </c>
       <c r="G32" t="n">
-        <v>273.6382885186227</v>
+        <v>284.8529334465277</v>
       </c>
       <c r="H32" t="n">
-        <v>197.8103531192548</v>
+        <v>234.6452892417907</v>
       </c>
       <c r="I32" t="n">
-        <v>68.81144057389355</v>
+        <v>105.6463766964295</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>8.204668944637319</v>
+        <v>19.4193138725424</v>
       </c>
       <c r="S32" t="n">
-        <v>67.35562058973298</v>
+        <v>81.62420422803805</v>
       </c>
       <c r="T32" t="n">
-        <v>81.43140056761899</v>
+        <v>118.2663366901549</v>
       </c>
       <c r="U32" t="n">
-        <v>109.6812039113241</v>
+        <v>146.51614003386</v>
       </c>
       <c r="V32" t="n">
-        <v>186.0878094736225</v>
+        <v>222.9227455961584</v>
       </c>
       <c r="W32" t="n">
-        <v>207.5765197209006</v>
+        <v>218.7911646488057</v>
       </c>
       <c r="X32" t="n">
-        <v>228.0666516819567</v>
+        <v>264.9015878044926</v>
       </c>
       <c r="Y32" t="n">
-        <v>244.5734896595412</v>
+        <v>281.4084257820771</v>
       </c>
     </row>
     <row r="33">
@@ -24993,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24.86873465335498</v>
+        <v>61.70367077589088</v>
       </c>
       <c r="C33" t="n">
-        <v>31.04404999180338</v>
+        <v>67.87898611433928</v>
       </c>
       <c r="D33" t="n">
-        <v>5.780616568126391</v>
+        <v>42.6155526906623</v>
       </c>
       <c r="E33" t="n">
-        <v>15.98063145888858</v>
+        <v>52.81556758142449</v>
       </c>
       <c r="F33" t="n">
-        <v>3.404763396871516</v>
+        <v>40.23969951940742</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>32.51400428923418</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>7.405931362520008</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25044,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>30.01872210732546</v>
+        <v>41.23336703523054</v>
       </c>
       <c r="T33" t="n">
-        <v>58.50027969830924</v>
+        <v>72.76886333661432</v>
       </c>
       <c r="U33" t="n">
-        <v>84.27693308446246</v>
+        <v>121.1118692069984</v>
       </c>
       <c r="V33" t="n">
-        <v>91.13613815291291</v>
+        <v>102.350783080818</v>
       </c>
       <c r="W33" t="n">
-        <v>110.0305341644072</v>
+        <v>146.8654702869432</v>
       </c>
       <c r="X33" t="n">
-        <v>64.10853620696511</v>
+        <v>100.943472329501</v>
       </c>
       <c r="Y33" t="n">
-        <v>64.018246780792</v>
+        <v>75.23289170869708</v>
       </c>
     </row>
     <row r="34">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>38.16753118542493</v>
+        <v>75.00246730796084</v>
       </c>
       <c r="C34" t="n">
-        <v>25.58237210211547</v>
+        <v>62.41730822465138</v>
       </c>
       <c r="D34" t="n">
-        <v>6.951024021699993</v>
+        <v>43.7859601442359</v>
       </c>
       <c r="E34" t="n">
-        <v>4.769513650056808</v>
+        <v>41.60444977259272</v>
       </c>
       <c r="F34" t="n">
-        <v>3.756599026418883</v>
+        <v>40.59153514895479</v>
       </c>
       <c r="G34" t="n">
-        <v>26.3265303619464</v>
+        <v>63.1614664844823</v>
       </c>
       <c r="H34" t="n">
-        <v>20.56272351092721</v>
+        <v>57.39765963346312</v>
       </c>
       <c r="I34" t="n">
-        <v>13.78602593074592</v>
+        <v>50.62096205328183</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>35.62894238065712</v>
+        <v>72.46387850319303</v>
       </c>
       <c r="S34" t="n">
-        <v>82.35214904045989</v>
+        <v>93.56679396836498</v>
       </c>
       <c r="T34" t="n">
-        <v>86.28114043176913</v>
+        <v>97.49578535967422</v>
       </c>
       <c r="U34" t="n">
-        <v>144.6545803599785</v>
+        <v>158.9231639982836</v>
       </c>
       <c r="V34" t="n">
-        <v>110.4731943273156</v>
+        <v>147.3081304498515</v>
       </c>
       <c r="W34" t="n">
-        <v>144.8585493400786</v>
+        <v>181.6934854626145</v>
       </c>
       <c r="X34" t="n">
-        <v>84.04520639252479</v>
+        <v>95.25985132042987</v>
       </c>
       <c r="Y34" t="n">
-        <v>76.92020435558243</v>
+        <v>113.7551404781183</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.0693926669682</v>
+        <v>255.3379763052733</v>
       </c>
       <c r="C35" t="n">
-        <v>223.6084427744952</v>
+        <v>260.4433788970311</v>
       </c>
       <c r="D35" t="n">
-        <v>213.0185926241706</v>
+        <v>249.8535287467065</v>
       </c>
       <c r="E35" t="n">
-        <v>240.2659210757494</v>
+        <v>277.1008571982853</v>
       </c>
       <c r="F35" t="n">
-        <v>265.2115967451991</v>
+        <v>276.4262416731041</v>
       </c>
       <c r="G35" t="n">
-        <v>273.6382885186227</v>
+        <v>310.4732246411586</v>
       </c>
       <c r="H35" t="n">
-        <v>197.8103531192548</v>
+        <v>234.6452892417907</v>
       </c>
       <c r="I35" t="n">
-        <v>68.81144057389355</v>
+        <v>105.6463766964295</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>8.204668944637319</v>
+        <v>45.03960506717323</v>
       </c>
       <c r="S35" t="n">
-        <v>67.35562058973298</v>
+        <v>104.1905567122689</v>
       </c>
       <c r="T35" t="n">
-        <v>81.43140056761899</v>
+        <v>118.2663366901549</v>
       </c>
       <c r="U35" t="n">
-        <v>109.6812039113241</v>
+        <v>120.8958488392292</v>
       </c>
       <c r="V35" t="n">
-        <v>186.0878094736225</v>
+        <v>222.9227455961584</v>
       </c>
       <c r="W35" t="n">
-        <v>207.5765197209006</v>
+        <v>244.4114558434366</v>
       </c>
       <c r="X35" t="n">
-        <v>228.0666516819567</v>
+        <v>264.9015878044926</v>
       </c>
       <c r="Y35" t="n">
-        <v>244.5734896595412</v>
+        <v>255.7881345874463</v>
       </c>
     </row>
     <row r="36">
@@ -25230,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>24.86873465335498</v>
+        <v>61.70367077589088</v>
       </c>
       <c r="C36" t="n">
-        <v>31.04404999180338</v>
+        <v>67.87898611433928</v>
       </c>
       <c r="D36" t="n">
-        <v>5.780616568126391</v>
+        <v>42.6155526906623</v>
       </c>
       <c r="E36" t="n">
-        <v>15.98063145888858</v>
+        <v>52.81556758142449</v>
       </c>
       <c r="F36" t="n">
-        <v>3.404763396871516</v>
+        <v>40.23969951940742</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>32.51400428923418</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>7.405931362520008</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25281,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>30.01872210732546</v>
+        <v>41.23336703523054</v>
       </c>
       <c r="T36" t="n">
-        <v>58.50027969830924</v>
+        <v>72.76886333661432</v>
       </c>
       <c r="U36" t="n">
-        <v>84.27693308446246</v>
+        <v>95.49157801236754</v>
       </c>
       <c r="V36" t="n">
-        <v>91.13613815291291</v>
+        <v>102.350783080818</v>
       </c>
       <c r="W36" t="n">
-        <v>110.0305341644072</v>
+        <v>146.8654702869432</v>
       </c>
       <c r="X36" t="n">
-        <v>64.10853620696511</v>
+        <v>100.943472329501</v>
       </c>
       <c r="Y36" t="n">
-        <v>64.018246780792</v>
+        <v>100.8531829033279</v>
       </c>
     </row>
     <row r="37">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>38.16753118542493</v>
+        <v>75.00246730796084</v>
       </c>
       <c r="C37" t="n">
-        <v>25.58237210211547</v>
+        <v>62.41730822465138</v>
       </c>
       <c r="D37" t="n">
-        <v>6.951024021699993</v>
+        <v>43.7859601442359</v>
       </c>
       <c r="E37" t="n">
-        <v>4.769513650056808</v>
+        <v>41.60444977259272</v>
       </c>
       <c r="F37" t="n">
-        <v>3.756599026418883</v>
+        <v>40.59153514895479</v>
       </c>
       <c r="G37" t="n">
-        <v>26.3265303619464</v>
+        <v>63.1614664844823</v>
       </c>
       <c r="H37" t="n">
-        <v>20.56272351092721</v>
+        <v>57.39765963346312</v>
       </c>
       <c r="I37" t="n">
-        <v>13.78602593074592</v>
+        <v>50.62096205328183</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>35.62894238065712</v>
+        <v>46.8435873085622</v>
       </c>
       <c r="S37" t="n">
-        <v>82.35214904045989</v>
+        <v>93.56679396836498</v>
       </c>
       <c r="T37" t="n">
-        <v>86.28114043176913</v>
+        <v>123.116076554305</v>
       </c>
       <c r="U37" t="n">
-        <v>144.6545803599785</v>
+        <v>155.8692252878836</v>
       </c>
       <c r="V37" t="n">
-        <v>110.4731943273156</v>
+        <v>124.7417779656207</v>
       </c>
       <c r="W37" t="n">
-        <v>144.8585493400786</v>
+        <v>181.6934854626145</v>
       </c>
       <c r="X37" t="n">
-        <v>84.04520639252479</v>
+        <v>120.8801425150607</v>
       </c>
       <c r="Y37" t="n">
-        <v>76.92020435558243</v>
+        <v>113.7551404781183</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.0693926669682</v>
+        <v>277.9043287895041</v>
       </c>
       <c r="C38" t="n">
-        <v>223.6084427744952</v>
+        <v>260.4433788970311</v>
       </c>
       <c r="D38" t="n">
-        <v>213.0185926241706</v>
+        <v>249.8535287467065</v>
       </c>
       <c r="E38" t="n">
-        <v>240.2659210757494</v>
+        <v>277.1008571982853</v>
       </c>
       <c r="F38" t="n">
-        <v>265.2115967451991</v>
+        <v>302.046532867735</v>
       </c>
       <c r="G38" t="n">
-        <v>273.6382885186227</v>
+        <v>310.4732246411586</v>
       </c>
       <c r="H38" t="n">
-        <v>197.8103531192548</v>
+        <v>234.6452892417907</v>
       </c>
       <c r="I38" t="n">
-        <v>68.81144057389355</v>
+        <v>105.6463766964295</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>8.204668944637319</v>
+        <v>19.4193138725424</v>
       </c>
       <c r="S38" t="n">
-        <v>67.35562058973298</v>
+        <v>104.1905567122689</v>
       </c>
       <c r="T38" t="n">
-        <v>81.43140056761899</v>
+        <v>118.2663366901549</v>
       </c>
       <c r="U38" t="n">
-        <v>109.6812039113241</v>
+        <v>146.51614003386</v>
       </c>
       <c r="V38" t="n">
-        <v>186.0878094736225</v>
+        <v>200.3563931119276</v>
       </c>
       <c r="W38" t="n">
-        <v>207.5765197209006</v>
+        <v>218.7911646488057</v>
       </c>
       <c r="X38" t="n">
-        <v>228.0666516819567</v>
+        <v>264.9015878044926</v>
       </c>
       <c r="Y38" t="n">
-        <v>244.5734896595412</v>
+        <v>255.7881345874463</v>
       </c>
     </row>
     <row r="39">
@@ -25467,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>24.86873465335498</v>
+        <v>61.70367077589088</v>
       </c>
       <c r="C39" t="n">
-        <v>31.04404999180338</v>
+        <v>67.87898611433928</v>
       </c>
       <c r="D39" t="n">
-        <v>5.780616568126391</v>
+        <v>42.6155526906623</v>
       </c>
       <c r="E39" t="n">
-        <v>15.98063145888858</v>
+        <v>52.81556758142449</v>
       </c>
       <c r="F39" t="n">
-        <v>3.404763396871516</v>
+        <v>40.23969951940742</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>32.51400428923418</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>7.405931362520008</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25518,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>30.01872210732546</v>
+        <v>41.23336703523054</v>
       </c>
       <c r="T39" t="n">
-        <v>58.50027969830924</v>
+        <v>95.33521582084515</v>
       </c>
       <c r="U39" t="n">
-        <v>84.27693308446246</v>
+        <v>95.49157801236754</v>
       </c>
       <c r="V39" t="n">
-        <v>91.13613815291291</v>
+        <v>127.9710742754488</v>
       </c>
       <c r="W39" t="n">
-        <v>110.0305341644072</v>
+        <v>124.2991178027123</v>
       </c>
       <c r="X39" t="n">
-        <v>64.10853620696511</v>
+        <v>100.943472329501</v>
       </c>
       <c r="Y39" t="n">
-        <v>64.018246780792</v>
+        <v>75.23289170869708</v>
       </c>
     </row>
     <row r="40">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>38.16753118542493</v>
+        <v>75.00246730796084</v>
       </c>
       <c r="C40" t="n">
-        <v>25.58237210211547</v>
+        <v>62.41730822465138</v>
       </c>
       <c r="D40" t="n">
-        <v>6.951024021699993</v>
+        <v>43.7859601442359</v>
       </c>
       <c r="E40" t="n">
-        <v>4.769513650056808</v>
+        <v>41.60444977259272</v>
       </c>
       <c r="F40" t="n">
-        <v>3.756599026418883</v>
+        <v>40.59153514895479</v>
       </c>
       <c r="G40" t="n">
-        <v>26.3265303619464</v>
+        <v>63.1614664844823</v>
       </c>
       <c r="H40" t="n">
-        <v>20.56272351092721</v>
+        <v>57.39765963346312</v>
       </c>
       <c r="I40" t="n">
-        <v>13.78602593074592</v>
+        <v>50.62096205328183</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>35.62894238065712</v>
+        <v>46.8435873085622</v>
       </c>
       <c r="S40" t="n">
-        <v>82.35214904045989</v>
+        <v>93.56679396836498</v>
       </c>
       <c r="T40" t="n">
-        <v>86.28114043176913</v>
+        <v>97.49578535967422</v>
       </c>
       <c r="U40" t="n">
-        <v>144.6545803599785</v>
+        <v>181.4895164825144</v>
       </c>
       <c r="V40" t="n">
-        <v>110.4731943273156</v>
+        <v>147.3081304498515</v>
       </c>
       <c r="W40" t="n">
-        <v>144.8585493400786</v>
+        <v>159.1271329783837</v>
       </c>
       <c r="X40" t="n">
-        <v>84.04520639252479</v>
+        <v>120.8801425150607</v>
       </c>
       <c r="Y40" t="n">
-        <v>76.92020435558243</v>
+        <v>113.7551404781183</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>249.056134756323</v>
+        <v>356.5397603396912</v>
       </c>
       <c r="C41" t="n">
-        <v>231.59518486385</v>
+        <v>339.0788104472181</v>
       </c>
       <c r="D41" t="n">
-        <v>221.0053347135254</v>
+        <v>328.4889602968935</v>
       </c>
       <c r="E41" t="n">
-        <v>248.2526631651043</v>
+        <v>355.7362887484724</v>
       </c>
       <c r="F41" t="n">
-        <v>273.1983388345539</v>
+        <v>380.681964417922</v>
       </c>
       <c r="G41" t="n">
-        <v>281.6250306079775</v>
+        <v>363.4883649967148</v>
       </c>
       <c r="H41" t="n">
-        <v>205.7970952086096</v>
+        <v>313.2807207919777</v>
       </c>
       <c r="I41" t="n">
-        <v>76.79818266324838</v>
+        <v>161.7154557623857</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>16.19141103399215</v>
+        <v>123.6750366173602</v>
       </c>
       <c r="S41" t="n">
-        <v>75.34236267908781</v>
+        <v>182.8259882624559</v>
       </c>
       <c r="T41" t="n">
-        <v>89.41814265697383</v>
+        <v>196.9017682403419</v>
       </c>
       <c r="U41" t="n">
-        <v>117.667946000679</v>
+        <v>225.1515715840471</v>
       </c>
       <c r="V41" t="n">
-        <v>194.0745515629774</v>
+        <v>301.5581771463455</v>
       </c>
       <c r="W41" t="n">
-        <v>215.5632618102555</v>
+        <v>323.0468873936236</v>
       </c>
       <c r="X41" t="n">
-        <v>236.0533937713115</v>
+        <v>317.9167281600488</v>
       </c>
       <c r="Y41" t="n">
-        <v>252.5602317488961</v>
+        <v>334.4235661376333</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>32.85547674270981</v>
+        <v>140.3391023260779</v>
       </c>
       <c r="C42" t="n">
-        <v>39.03079208115821</v>
+        <v>146.5144176645263</v>
       </c>
       <c r="D42" t="n">
-        <v>13.76735865748122</v>
+        <v>121.2509842408493</v>
       </c>
       <c r="E42" t="n">
-        <v>23.96737354824342</v>
+        <v>131.4509991316115</v>
       </c>
       <c r="F42" t="n">
-        <v>11.39150548622635</v>
+        <v>118.8751310695944</v>
       </c>
       <c r="G42" t="n">
-        <v>3.665810256053106</v>
+        <v>111.1494358394212</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>86.04136291270703</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>63.20255152762564</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>73.9637528288537</v>
       </c>
       <c r="S42" t="n">
-        <v>38.00546419668029</v>
+        <v>119.8687985854176</v>
       </c>
       <c r="T42" t="n">
-        <v>66.48702178766408</v>
+        <v>173.9706473710322</v>
       </c>
       <c r="U42" t="n">
-        <v>92.26367517381729</v>
+        <v>174.1270095625545</v>
       </c>
       <c r="V42" t="n">
-        <v>99.12288024226774</v>
+        <v>184.040153341405</v>
       </c>
       <c r="W42" t="n">
-        <v>118.0172762537621</v>
+        <v>199.8806106424994</v>
       </c>
       <c r="X42" t="n">
-        <v>72.09527829631995</v>
+        <v>179.578903879688</v>
       </c>
       <c r="Y42" t="n">
-        <v>72.00498887014683</v>
+        <v>179.4886144535149</v>
       </c>
     </row>
     <row r="43">
@@ -25783,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.15427327477977</v>
+        <v>153.6378988581479</v>
       </c>
       <c r="C43" t="n">
-        <v>33.56911419147031</v>
+        <v>141.0527397748384</v>
       </c>
       <c r="D43" t="n">
-        <v>14.93776611105483</v>
+        <v>122.4213916944229</v>
       </c>
       <c r="E43" t="n">
-        <v>12.75625573941164</v>
+        <v>120.2398813227797</v>
       </c>
       <c r="F43" t="n">
-        <v>11.74334111577372</v>
+        <v>119.2269666991418</v>
       </c>
       <c r="G43" t="n">
-        <v>34.31327245130123</v>
+        <v>141.7968980346693</v>
       </c>
       <c r="H43" t="n">
-        <v>28.54946560028205</v>
+        <v>136.0330911836501</v>
       </c>
       <c r="I43" t="n">
-        <v>21.77276802010076</v>
+        <v>129.2563936034688</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>67.16509879288334</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>34.34767073327412</v>
       </c>
       <c r="R43" t="n">
-        <v>43.61568447001196</v>
+        <v>125.4790188587492</v>
       </c>
       <c r="S43" t="n">
-        <v>90.33889112981473</v>
+        <v>197.8225167131828</v>
       </c>
       <c r="T43" t="n">
-        <v>94.26788252112397</v>
+        <v>179.1851556202612</v>
       </c>
       <c r="U43" t="n">
-        <v>152.6413224493334</v>
+        <v>260.1249480327015</v>
       </c>
       <c r="V43" t="n">
-        <v>118.4599364166705</v>
+        <v>200.3232708054078</v>
       </c>
       <c r="W43" t="n">
-        <v>152.8452914294335</v>
+        <v>260.3289170128016</v>
       </c>
       <c r="X43" t="n">
-        <v>92.03194848187962</v>
+        <v>199.5155740652477</v>
       </c>
       <c r="Y43" t="n">
-        <v>84.90694644493726</v>
+        <v>192.3905720283054</v>
       </c>
     </row>
     <row r="44">
@@ -25862,31 +25864,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>330.9194691450603</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>339.0788104472181</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>328.4889602968935</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>355.7362887484724</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>380.681964417922</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>363.4883649967148</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>313.2807207919777</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>184.2818082466165</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,31 +25909,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>123.6750366173602</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>182.8259882624559</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>196.9017682403419</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>202.5852190998162</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>301.5581771463455</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>323.0468873936236</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>343.5370193546796</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>334.4235661376333</v>
       </c>
     </row>
     <row r="45">
@@ -25941,31 +25943,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>114.7188111314471</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>146.5144176645263</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>95.63069304621848</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>131.4509991316115</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>118.8751310695944</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>111.1494358394212</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>86.04136291270703</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>63.20255152762564</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>73.9637528288537</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>145.4890897800484</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>173.9706473710322</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>199.7473007571854</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>184.040153341405</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>199.8806106424994</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>179.578903879688</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>179.4886144535149</v>
       </c>
     </row>
     <row r="46">
@@ -26020,34 +26022,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>153.6378988581479</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>141.0527397748384</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>122.4213916944229</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>120.2398813227797</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>119.2269666991418</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>119.2305455504385</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>110.4127999890193</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>129.2563936034688</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>41.54480759825251</v>
       </c>
       <c r="K46" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26062,34 +26064,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>59.96796192790495</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>151.0993100533801</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>197.8225167131828</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>201.7515081044921</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>260.1249480327015</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>225.9435620000386</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>234.7086258181708</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>199.5155740652477</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>192.3905720283054</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>316294.6845549099</v>
+        <v>473378.5279194101</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481184.5875300774</v>
+        <v>473378.5279194101</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>481184.5875300774</v>
+        <v>494438.9714924436</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481184.5875300774</v>
+        <v>494438.9714924436</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481184.5875300774</v>
+        <v>514183.4483568469</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>473378.5279194101</v>
+        <v>493123.0047838135</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>572646.3614136614</v>
+        <v>493123.0047838136</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>572646.3614136614</v>
+        <v>523122.7990236928</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>572646.3614136614</v>
+        <v>523122.7990236927</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>572646.3614136614</v>
+        <v>523122.7990236927</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>557807.1392590115</v>
+        <v>365115.3399960672</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>290269.9949349053</v>
+        <v>365115.3399960671</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>737348.7048453349</v>
+        <v>737348.704845335</v>
       </c>
       <c r="C2" t="n">
-        <v>737348.7048453349</v>
+        <v>737348.7048453345</v>
       </c>
       <c r="D2" t="n">
-        <v>737348.7048453346</v>
+        <v>737348.7048453344</v>
       </c>
       <c r="E2" t="n">
-        <v>221068.8836719025</v>
+        <v>387392.9531166677</v>
       </c>
       <c r="F2" t="n">
-        <v>395658.1927044329</v>
+        <v>387392.9531166673</v>
       </c>
       <c r="G2" t="n">
-        <v>395658.1927044325</v>
+        <v>409692.2463116444</v>
       </c>
       <c r="H2" t="n">
-        <v>395658.192704433</v>
+        <v>409692.2463116444</v>
       </c>
       <c r="I2" t="n">
-        <v>395658.1927044329</v>
+        <v>422756.9838169958</v>
       </c>
       <c r="J2" t="n">
-        <v>387392.9531166676</v>
+        <v>400457.6906220188</v>
       </c>
       <c r="K2" t="n">
-        <v>492500.0709341097</v>
+        <v>400457.6906220188</v>
       </c>
       <c r="L2" t="n">
-        <v>492500.0709341097</v>
+        <v>432222.1786407145</v>
       </c>
       <c r="M2" t="n">
-        <v>492500.0709341097</v>
+        <v>432222.1786407145</v>
       </c>
       <c r="N2" t="n">
-        <v>492500.0709341094</v>
+        <v>432222.1786407145</v>
       </c>
       <c r="O2" t="n">
-        <v>476787.9533585978</v>
+        <v>264920.1631996993</v>
       </c>
       <c r="P2" t="n">
-        <v>193513.3299566035</v>
+        <v>264920.1631996993</v>
       </c>
     </row>
     <row r="3">
@@ -26372,28 +26374,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>9559.431483690014</v>
+        <v>71517.30628113206</v>
       </c>
       <c r="F3" t="n">
-        <v>65127.91260964821</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>8608.961040982445</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6812.973454767425</v>
       </c>
       <c r="J3" t="n">
-        <v>6389.393671483856</v>
+        <v>62908.34524014962</v>
       </c>
       <c r="K3" t="n">
-        <v>106942.165525726</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>20955.26505903155</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>452399.9905489652</v>
       </c>
       <c r="E4" t="n">
-        <v>124982.7419867166</v>
+        <v>230463.0783351474</v>
       </c>
       <c r="F4" t="n">
-        <v>235704.7745889019</v>
+        <v>230463.0783351474</v>
       </c>
       <c r="G4" t="n">
-        <v>235704.7745889019</v>
+        <v>244604.9698508521</v>
       </c>
       <c r="H4" t="n">
-        <v>235704.7745889019</v>
+        <v>244604.9698508521</v>
       </c>
       <c r="I4" t="n">
-        <v>235704.7745889019</v>
+        <v>252032.7446345292</v>
       </c>
       <c r="J4" t="n">
-        <v>230463.0783351474</v>
+        <v>237890.8531188245</v>
       </c>
       <c r="K4" t="n">
-        <v>297120.5030663271</v>
+        <v>237890.8531188245</v>
       </c>
       <c r="L4" t="n">
-        <v>297120.5030663271</v>
+        <v>258035.4352669928</v>
       </c>
       <c r="M4" t="n">
-        <v>297120.5030663271</v>
+        <v>258035.4352669928</v>
       </c>
       <c r="N4" t="n">
-        <v>297120.5030663271</v>
+        <v>258035.4352669928</v>
       </c>
       <c r="O4" t="n">
-        <v>287156.1037334849</v>
+        <v>151934.8996115138</v>
       </c>
       <c r="P4" t="n">
-        <v>107507.4055314464</v>
+        <v>151934.8996115138</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>1004.56480675292</v>
+        <v>7515.485527185614</v>
       </c>
       <c r="F5" t="n">
-        <v>7848.612913228564</v>
+        <v>7515.485527185614</v>
       </c>
       <c r="G5" t="n">
-        <v>7848.612913228564</v>
+        <v>8420.168959378556</v>
       </c>
       <c r="H5" t="n">
-        <v>7848.612913228564</v>
+        <v>8420.168959378556</v>
       </c>
       <c r="I5" t="n">
-        <v>7848.612913228564</v>
+        <v>9977.88266401211</v>
       </c>
       <c r="J5" t="n">
-        <v>7515.485527185614</v>
+        <v>9073.199231819168</v>
       </c>
       <c r="K5" t="n">
-        <v>11909.5885626878</v>
+        <v>9073.199231819168</v>
       </c>
       <c r="L5" t="n">
-        <v>11909.5885626878</v>
+        <v>10370.62602243588</v>
       </c>
       <c r="M5" t="n">
-        <v>11909.5885626878</v>
+        <v>10370.62602243588</v>
       </c>
       <c r="N5" t="n">
-        <v>11909.5885626878</v>
+        <v>10370.62602243588</v>
       </c>
       <c r="O5" t="n">
-        <v>11238.15114197783</v>
+        <v>3759.823927443208</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>3759.823927443208</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>251321.1142963697</v>
+        <v>251321.1142963698</v>
       </c>
       <c r="C6" t="n">
-        <v>251321.1142963697</v>
+        <v>251321.1142963693</v>
       </c>
       <c r="D6" t="n">
-        <v>251321.1142963695</v>
+        <v>251321.1142963692</v>
       </c>
       <c r="E6" t="n">
-        <v>85522.14539474298</v>
+        <v>77897.08297320269</v>
       </c>
       <c r="F6" t="n">
-        <v>86976.89259265419</v>
+        <v>149414.3892543343</v>
       </c>
       <c r="G6" t="n">
-        <v>152104.805202302</v>
+        <v>148058.1464604313</v>
       </c>
       <c r="H6" t="n">
-        <v>152104.8052023025</v>
+        <v>156667.1075014138</v>
       </c>
       <c r="I6" t="n">
-        <v>152104.8052023024</v>
+        <v>153933.383063687</v>
       </c>
       <c r="J6" t="n">
-        <v>143024.9955828508</v>
+        <v>90585.29303122542</v>
       </c>
       <c r="K6" t="n">
-        <v>76527.81377936876</v>
+        <v>153493.6382713751</v>
       </c>
       <c r="L6" t="n">
-        <v>183469.9793050948</v>
+        <v>142860.8522922543</v>
       </c>
       <c r="M6" t="n">
-        <v>183469.9793050948</v>
+        <v>163816.1173512859</v>
       </c>
       <c r="N6" t="n">
-        <v>183469.9793050945</v>
+        <v>163816.1173512859</v>
       </c>
       <c r="O6" t="n">
-        <v>178393.6984831351</v>
+        <v>109225.4396607422</v>
       </c>
       <c r="P6" t="n">
-        <v>86005.92442515709</v>
+        <v>109225.4396607423</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F2" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G2" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="H2" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="I2" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="J2" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="K2" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L2" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="M2" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="N2" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="O2" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
     </row>
     <row r="3">
@@ -26808,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F2" t="n">
-        <v>81.40989076206026</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.98674208935482</v>
+        <v>78.63543155018702</v>
       </c>
       <c r="K2" t="n">
-        <v>133.6777069071575</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>26.19408132378944</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27030,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27151,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K2" t="n">
-        <v>81.40989076206026</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.98674208935482</v>
+        <v>78.63543155018702</v>
       </c>
       <c r="P2" t="n">
-        <v>133.6777069071575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -28135,28 +28137,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28168,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -28214,28 +28216,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="13">
@@ -28245,34 +28247,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K13" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28290,31 +28292,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.94928935461252</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28372,28 +28374,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="15">
@@ -28403,25 +28405,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -28451,28 +28453,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28484,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -28530,28 +28532,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="C17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="D17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="E17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="F17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="G17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="H17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="I17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28609,28 +28611,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="T17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="U17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="V17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="W17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="X17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
     </row>
     <row r="18">
@@ -28640,25 +28642,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="C18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="D18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="E18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="F18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="G18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="H18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -28688,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="T18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="U18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="V18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="W18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="X18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="Y18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
     </row>
     <row r="19">
@@ -28719,28 +28721,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="D19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="E19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="F19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="G19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="H19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="I19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="J19" t="n">
         <v>93.35918011667277</v>
@@ -28767,28 +28769,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="T19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="U19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="V19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="W19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="X19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="C20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="D20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="E20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="F20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="G20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="H20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="I20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28846,28 +28848,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="T20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="U20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="V20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="W20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="X20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
     </row>
     <row r="21">
@@ -28877,25 +28879,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="C21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="D21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="E21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="F21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="G21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="H21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -28925,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="T21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="U21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="V21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="W21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="X21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="Y21" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
     </row>
     <row r="22">
@@ -28956,28 +28958,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="D22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="E22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="F22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="G22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="H22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="I22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="J22" t="n">
         <v>93.35918011667277</v>
@@ -29004,28 +29006,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="T22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="U22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="V22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="W22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="X22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="C23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="D23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="E23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="F23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="G23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="H23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="I23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29083,28 +29085,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="T23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="U23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="V23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="W23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="X23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
     </row>
     <row r="24">
@@ -29114,25 +29116,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="C24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="D24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="E24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="F24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="G24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="H24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -29162,28 +29164,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="T24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="U24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="V24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="W24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="X24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="Y24" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
     </row>
     <row r="25">
@@ -29193,28 +29195,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="D25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="E25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="F25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="G25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="H25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="I25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="J25" t="n">
         <v>93.35918011667277</v>
@@ -29241,28 +29243,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="T25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="U25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="V25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="W25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="X25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
     </row>
     <row r="26">
@@ -29509,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C29" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D29" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E29" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F29" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G29" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H29" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I29" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -29557,28 +29559,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S29" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T29" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U29" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V29" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W29" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X29" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y29" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="30">
@@ -29588,25 +29590,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C30" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D30" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E30" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F30" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -29636,28 +29638,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S30" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T30" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U30" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V30" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W30" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X30" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y30" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="31">
@@ -29667,31 +29669,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C31" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D31" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E31" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F31" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G31" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H31" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I31" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J31" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K31" t="n">
         <v>22.26949182588285</v>
@@ -29715,28 +29717,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S31" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T31" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U31" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V31" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W31" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X31" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y31" t="n">
-        <v>141.6644489965124</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="C32" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="D32" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="E32" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="F32" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="G32" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="H32" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="I32" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -29794,28 +29796,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="S32" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="T32" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="U32" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="V32" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="W32" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="X32" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="Y32" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
     </row>
     <row r="33">
@@ -29825,25 +29827,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="C33" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="D33" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="E33" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="F33" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -29876,25 +29878,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="T33" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="U33" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="V33" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="W33" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="X33" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="Y33" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
     </row>
     <row r="34">
@@ -29904,28 +29906,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="C34" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="D34" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="E34" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="F34" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="G34" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="H34" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="I34" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -29952,28 +29954,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="S34" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="T34" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="U34" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="V34" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="W34" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="X34" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="Y34" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="C35" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="D35" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="E35" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="F35" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="G35" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="H35" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="I35" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30031,28 +30033,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="S35" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="T35" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="U35" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="V35" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="W35" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="X35" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="Y35" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
     </row>
     <row r="36">
@@ -30062,25 +30064,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="C36" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="D36" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="E36" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="F36" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -30113,25 +30115,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="T36" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="U36" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="V36" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="W36" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="X36" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="Y36" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
     </row>
     <row r="37">
@@ -30141,28 +30143,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="C37" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="D37" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="E37" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="F37" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="G37" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="H37" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="I37" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -30189,28 +30191,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="S37" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="T37" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="U37" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="V37" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="W37" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="X37" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="Y37" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="C38" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="D38" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="E38" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="F38" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="G38" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="H38" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="I38" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30268,28 +30270,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="S38" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="T38" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="U38" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="V38" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="W38" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="X38" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="Y38" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
     </row>
     <row r="39">
@@ -30299,25 +30301,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="C39" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="D39" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="E39" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="F39" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -30350,25 +30352,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="T39" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="U39" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="V39" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="W39" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="X39" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="Y39" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
     </row>
     <row r="40">
@@ -30378,28 +30380,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="C40" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="D40" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="E40" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="F40" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="G40" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="H40" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="I40" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -30426,28 +30428,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="S40" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="T40" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="U40" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="V40" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="W40" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="X40" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="Y40" t="n">
-        <v>141.6644489965124</v>
+        <v>104.8295128739765</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="C41" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="D41" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="E41" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="F41" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="G41" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="H41" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="I41" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30505,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="S41" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="T41" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="U41" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="V41" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="W41" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="X41" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="Y41" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
     </row>
     <row r="42">
@@ -30536,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="C42" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="D42" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="E42" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="F42" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="G42" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30584,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="S42" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="T42" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="U42" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="V42" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="W42" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="X42" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="Y42" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
     </row>
     <row r="43">
@@ -30615,31 +30617,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="C43" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="D43" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="E43" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="F43" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="G43" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="H43" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="I43" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="K43" t="n">
         <v>22.26949182588285</v>
@@ -30660,31 +30662,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="R43" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="S43" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="T43" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="U43" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="V43" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="W43" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="X43" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.6777069071575</v>
+        <v>26.19408132378943</v>
       </c>
     </row>
     <row r="44">
@@ -30694,31 +30696,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30739,31 +30741,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
     </row>
     <row r="45">
@@ -30773,31 +30775,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30821,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
     </row>
     <row r="46">
@@ -30852,34 +30854,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30894,34 +30896,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>26.19408132378943</v>
       </c>
     </row>
   </sheetData>
@@ -36358,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36446,16 +36448,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,16 +36521,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>25.62029119463084</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -36598,19 +36600,19 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36677,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36756,16 +36758,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36835,19 +36837,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36917,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36993,16 +36995,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37072,19 +37074,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,16 +37232,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>25.62029119463084</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37309,19 +37311,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37394,16 +37396,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,16 +37469,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37549,16 +37551,16 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37625,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37634,13 +37636,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,16 +37706,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>25.62029119463084</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37780,19 +37782,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37859,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37874,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,16 +37943,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -38026,13 +38028,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,16 +38180,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1439883.289278775</v>
+        <v>1385767.239661482</v>
       </c>
     </row>
     <row r="7">
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
+        <v>22.56635248423083</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="S23" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
       <c r="U23" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2450,11 +2450,11 @@
         <v>25.62029119463083</v>
       </c>
       <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
     </row>
     <row r="25">
@@ -2529,22 +2529,22 @@
         <v>25.62029119463083</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>22.56635248423083</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="T26" t="n">
+      <c r="V26" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>22.56635248423083</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>11.80515118300277</v>
+        <v>22.56635248423083</v>
       </c>
     </row>
     <row r="28">
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="T28" t="n">
+      <c r="X28" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="U28" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E29" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="F29" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2924,19 +2924,19 @@
         <v>25.62029119463083</v>
       </c>
       <c r="T30" t="n">
-        <v>11.80515118300276</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U30" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>11.80515118300277</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>25.62029119463083</v>
       </c>
       <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="U31" t="n">
-        <v>22.56635248423083</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>25.62029119463083</v>
       </c>
       <c r="S32" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="T32" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="U32" t="n">
         <v>22.56635248423083</v>
       </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3158,22 +3158,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>22.56635248423083</v>
+      </c>
+      <c r="X33" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="T33" t="n">
-        <v>22.56635248423083</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>25.62029119463083</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S34" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="T34" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,64 +3265,64 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>22.56635248423083</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U35" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>7.405931362520008</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3398,22 +3398,22 @@
         <v>25.62029119463083</v>
       </c>
       <c r="T36" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="V36" t="n">
+        <v>15.16042112171082</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>25.62029119463083</v>
       </c>
       <c r="S37" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3635,22 +3635,22 @@
         <v>25.62029119463083</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U39" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="W39" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>22.56635248423083</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3754,14 +3754,14 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>22.56635248423083</v>
+      </c>
+      <c r="I41" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>22.56635248423083</v>
-      </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3824,13 +3824,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,19 +3869,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3942,22 +3942,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.62029119463083</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="R43" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T43" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,64 +3976,64 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>22.56635248423083</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
+      <c r="T44" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
       <c r="U44" t="n">
-        <v>22.56635248423083</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,76 +4055,76 @@
         </is>
       </c>
       <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>22.56635248423083</v>
+      </c>
+      <c r="T45" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>22.56635248423083</v>
-      </c>
-      <c r="W45" t="n">
+      <c r="Y45" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G46" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>25.62029119463083</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.049623295570466</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="C23" t="n">
-        <v>2.049623295570466</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="D23" t="n">
-        <v>2.049623295570466</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="E23" t="n">
-        <v>2.049623295570466</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="F23" t="n">
-        <v>2.049623295570466</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="G23" t="n">
-        <v>2.049623295570466</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="H23" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I23" t="n">
         <v>2.049623295570466</v>
@@ -5992,16 +5992,16 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K23" t="n">
-        <v>27.41371157825499</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L23" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M23" t="n">
+        <v>26.38889993046976</v>
+      </c>
+      <c r="N23" t="n">
         <v>51.75298821315428</v>
-      </c>
-      <c r="N23" t="n">
-        <v>77.1170764958388</v>
       </c>
       <c r="O23" t="n">
         <v>77.1170764958388</v>
@@ -6013,28 +6013,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R23" t="n">
-        <v>76.6020827637447</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="S23" t="n">
-        <v>50.72300074896609</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="T23" t="n">
-        <v>50.72300074896609</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="U23" t="n">
-        <v>24.84391873418747</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="V23" t="n">
-        <v>2.049623295570466</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="W23" t="n">
-        <v>2.049623295570466</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="X23" t="n">
-        <v>2.049623295570466</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.049623295570466</v>
+        <v>53.80778732512771</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>24.84391873418747</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C24" t="n">
-        <v>24.84391873418747</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D24" t="n">
         <v>2.049623295570466</v>
@@ -6071,22 +6071,22 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K24" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L24" t="n">
-        <v>2.049623295570466</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M24" t="n">
-        <v>2.049623295570466</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N24" t="n">
-        <v>26.38889993046976</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O24" t="n">
-        <v>51.75298821315428</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P24" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q24" t="n">
         <v>102.4811647785233</v>
@@ -6098,7 +6098,7 @@
         <v>76.6020827637447</v>
       </c>
       <c r="T24" t="n">
-        <v>50.72300074896609</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U24" t="n">
         <v>50.72300074896609</v>
@@ -6113,7 +6113,7 @@
         <v>50.72300074896609</v>
       </c>
       <c r="Y24" t="n">
-        <v>50.72300074896609</v>
+        <v>27.92870531034908</v>
       </c>
     </row>
     <row r="25">
@@ -6156,10 +6156,10 @@
         <v>27.41371157825499</v>
       </c>
       <c r="M25" t="n">
-        <v>52.77779986093952</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N25" t="n">
-        <v>78.14188814362404</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O25" t="n">
         <v>102.4811647785233</v>
@@ -6177,19 +6177,19 @@
         <v>50.72300074896609</v>
       </c>
       <c r="T25" t="n">
-        <v>27.92870531034908</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U25" t="n">
-        <v>27.92870531034908</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V25" t="n">
-        <v>27.92870531034908</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="W25" t="n">
-        <v>27.92870531034908</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="X25" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="Y25" t="n">
         <v>2.049623295570466</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C26" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D26" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E26" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F26" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G26" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H26" t="n">
         <v>2.049623295570466</v>
@@ -6229,19 +6229,19 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K26" t="n">
-        <v>2.049623295570466</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L26" t="n">
         <v>26.38889993046976</v>
       </c>
       <c r="M26" t="n">
-        <v>26.38889993046976</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N26" t="n">
-        <v>51.75298821315428</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O26" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P26" t="n">
         <v>102.4811647785233</v>
@@ -6253,13 +6253,13 @@
         <v>102.4811647785233</v>
       </c>
       <c r="S26" t="n">
+        <v>102.4811647785233</v>
+      </c>
+      <c r="T26" t="n">
+        <v>102.4811647785233</v>
+      </c>
+      <c r="U26" t="n">
         <v>76.6020827637447</v>
-      </c>
-      <c r="T26" t="n">
-        <v>50.72300074896609</v>
-      </c>
-      <c r="U26" t="n">
-        <v>50.72300074896609</v>
       </c>
       <c r="V26" t="n">
         <v>50.72300074896609</v>
@@ -6271,7 +6271,7 @@
         <v>27.92870531034908</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.049623295570466</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="C27" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D27" t="n">
         <v>2.049623295570466</v>
@@ -6308,49 +6308,49 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K27" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L27" t="n">
-        <v>26.38889993046976</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M27" t="n">
-        <v>26.38889993046976</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N27" t="n">
-        <v>51.75298821315428</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O27" t="n">
-        <v>51.75298821315428</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P27" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q27" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="R27" t="n">
-        <v>91.61126447425255</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S27" t="n">
-        <v>65.73218245947393</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T27" t="n">
-        <v>65.73218245947393</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U27" t="n">
-        <v>39.85310044469531</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V27" t="n">
-        <v>39.85310044469531</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W27" t="n">
-        <v>13.9740184299167</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X27" t="n">
-        <v>13.9740184299167</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.049623295570466</v>
+        <v>79.68686933990632</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="C28" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="D28" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="E28" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="F28" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="G28" t="n">
         <v>2.049623295570466</v>
@@ -6408,28 +6408,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R28" t="n">
-        <v>79.68686933990632</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S28" t="n">
-        <v>53.80778732512771</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T28" t="n">
-        <v>27.92870531034908</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U28" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V28" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W28" t="n">
-        <v>2.049623295570466</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X28" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>53.80778732512771</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C29" t="n">
         <v>53.80778732512771</v>
       </c>
       <c r="D29" t="n">
-        <v>53.80778732512771</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E29" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F29" t="n">
         <v>2.049623295570466</v>
@@ -6466,13 +6466,13 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K29" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L29" t="n">
-        <v>26.38889993046976</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M29" t="n">
-        <v>51.75298821315428</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N29" t="n">
         <v>51.75298821315428</v>
@@ -6502,13 +6502,13 @@
         <v>76.6020827637447</v>
       </c>
       <c r="W29" t="n">
-        <v>53.80778732512771</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X29" t="n">
-        <v>53.80778732512771</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y29" t="n">
-        <v>53.80778732512771</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="30">
@@ -6551,16 +6551,16 @@
         <v>2.049623295570466</v>
       </c>
       <c r="M30" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="N30" t="n">
         <v>27.41371157825499</v>
       </c>
-      <c r="N30" t="n">
-        <v>51.75298821315428</v>
-      </c>
       <c r="O30" t="n">
-        <v>51.75298821315428</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="P30" t="n">
-        <v>77.1170764958388</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="Q30" t="n">
         <v>102.4811647785233</v>
@@ -6572,16 +6572,16 @@
         <v>65.73218245947393</v>
       </c>
       <c r="T30" t="n">
-        <v>53.80778732512771</v>
+        <v>39.85310044469531</v>
       </c>
       <c r="U30" t="n">
-        <v>27.92870531034908</v>
+        <v>13.9740184299167</v>
       </c>
       <c r="V30" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W30" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X30" t="n">
         <v>2.049623295570466</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="C31" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="D31" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="E31" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="F31" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="G31" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="H31" t="n">
         <v>2.049623295570466</v>
@@ -6630,10 +6630,10 @@
         <v>27.41371157825499</v>
       </c>
       <c r="M31" t="n">
-        <v>52.77779986093951</v>
+        <v>52.77779986093952</v>
       </c>
       <c r="N31" t="n">
-        <v>78.14188814362403</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O31" t="n">
         <v>102.4811647785233</v>
@@ -6651,22 +6651,22 @@
         <v>50.72300074896609</v>
       </c>
       <c r="T31" t="n">
+        <v>50.72300074896609</v>
+      </c>
+      <c r="U31" t="n">
         <v>24.84391873418747</v>
       </c>
-      <c r="U31" t="n">
-        <v>2.049623295570466</v>
-      </c>
       <c r="V31" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="W31" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="X31" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C32" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D32" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E32" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F32" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G32" t="n">
         <v>2.049623295570466</v>
@@ -6703,19 +6703,19 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K32" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L32" t="n">
-        <v>27.41371157825499</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M32" t="n">
-        <v>27.41371157825499</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N32" t="n">
-        <v>51.75298821315428</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O32" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P32" t="n">
         <v>102.4811647785233</v>
@@ -6727,25 +6727,25 @@
         <v>76.6020827637447</v>
       </c>
       <c r="S32" t="n">
-        <v>53.80778732512771</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T32" t="n">
-        <v>53.80778732512771</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="U32" t="n">
-        <v>53.80778732512771</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V32" t="n">
-        <v>53.80778732512771</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W32" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X32" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y32" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K33" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L33" t="n">
-        <v>2.049623295570466</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M33" t="n">
-        <v>27.41371157825499</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N33" t="n">
-        <v>52.77779986093951</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O33" t="n">
-        <v>52.77779986093951</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P33" t="n">
-        <v>78.14188814362403</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q33" t="n">
         <v>102.4811647785233</v>
@@ -6806,25 +6806,25 @@
         <v>102.4811647785233</v>
       </c>
       <c r="S33" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T33" t="n">
+        <v>102.4811647785233</v>
+      </c>
+      <c r="U33" t="n">
+        <v>102.4811647785233</v>
+      </c>
+      <c r="V33" t="n">
+        <v>102.4811647785233</v>
+      </c>
+      <c r="W33" t="n">
+        <v>79.68686933990632</v>
+      </c>
+      <c r="X33" t="n">
         <v>53.80778732512771</v>
       </c>
-      <c r="U33" t="n">
-        <v>53.80778732512771</v>
-      </c>
-      <c r="V33" t="n">
+      <c r="Y33" t="n">
         <v>27.92870531034908</v>
-      </c>
-      <c r="W33" t="n">
-        <v>27.92870531034908</v>
-      </c>
-      <c r="X33" t="n">
-        <v>27.92870531034908</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="C34" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="D34" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="E34" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="F34" t="n">
         <v>2.049623295570466</v>
@@ -6864,13 +6864,13 @@
         <v>2.049623295570466</v>
       </c>
       <c r="L34" t="n">
-        <v>27.413711578255</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M34" t="n">
-        <v>52.77779986093952</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N34" t="n">
-        <v>78.14188814362404</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O34" t="n">
         <v>102.4811647785233</v>
@@ -6882,28 +6882,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R34" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S34" t="n">
-        <v>76.6020827637447</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T34" t="n">
         <v>50.72300074896609</v>
       </c>
       <c r="U34" t="n">
-        <v>27.92870531034908</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V34" t="n">
-        <v>27.92870531034908</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W34" t="n">
-        <v>27.92870531034908</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X34" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>27.92870531034908</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="C35" t="n">
-        <v>27.92870531034908</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="D35" t="n">
-        <v>27.92870531034908</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="E35" t="n">
-        <v>27.92870531034908</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="F35" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="G35" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="H35" t="n">
         <v>2.049623295570466</v>
@@ -6940,19 +6940,19 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K35" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L35" t="n">
-        <v>27.41371157825499</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M35" t="n">
-        <v>52.77779986093951</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N35" t="n">
-        <v>52.77779986093951</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O35" t="n">
-        <v>78.14188814362403</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P35" t="n">
         <v>102.4811647785233</v>
@@ -6961,25 +6961,25 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R35" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S35" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T35" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U35" t="n">
-        <v>76.6020827637447</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V35" t="n">
-        <v>76.6020827637447</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W35" t="n">
-        <v>76.6020827637447</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X35" t="n">
-        <v>76.6020827637447</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y35" t="n">
         <v>50.72300074896609</v>
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.049623295570466</v>
+        <v>9.530362045590676</v>
       </c>
       <c r="C36" t="n">
-        <v>2.049623295570466</v>
+        <v>9.530362045590676</v>
       </c>
       <c r="D36" t="n">
-        <v>2.049623295570466</v>
+        <v>9.530362045590676</v>
       </c>
       <c r="E36" t="n">
-        <v>2.049623295570466</v>
+        <v>9.530362045590676</v>
       </c>
       <c r="F36" t="n">
-        <v>2.049623295570466</v>
+        <v>9.530362045590676</v>
       </c>
       <c r="G36" t="n">
-        <v>2.049623295570466</v>
+        <v>9.530362045590676</v>
       </c>
       <c r="H36" t="n">
         <v>2.049623295570466</v>
@@ -7019,22 +7019,22 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K36" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L36" t="n">
-        <v>2.049623295570466</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M36" t="n">
-        <v>2.049623295570466</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N36" t="n">
-        <v>27.41371157825499</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O36" t="n">
-        <v>52.77779986093951</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P36" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q36" t="n">
         <v>102.4811647785233</v>
@@ -7046,22 +7046,22 @@
         <v>76.6020827637447</v>
       </c>
       <c r="T36" t="n">
-        <v>53.80778732512771</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U36" t="n">
-        <v>27.92870531034908</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V36" t="n">
-        <v>2.049623295570466</v>
+        <v>35.4094440603693</v>
       </c>
       <c r="W36" t="n">
-        <v>2.049623295570466</v>
+        <v>35.4094440603693</v>
       </c>
       <c r="X36" t="n">
-        <v>2.049623295570466</v>
+        <v>35.4094440603693</v>
       </c>
       <c r="Y36" t="n">
-        <v>2.049623295570466</v>
+        <v>9.530362045590676</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.049623295570466</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C37" t="n">
-        <v>2.049623295570466</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="D37" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="E37" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="F37" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="G37" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="H37" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="I37" t="n">
         <v>2.049623295570466</v>
@@ -7098,16 +7098,16 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K37" t="n">
-        <v>2.049623295570466</v>
+        <v>2.049623295570477</v>
       </c>
       <c r="L37" t="n">
-        <v>27.41371157825499</v>
+        <v>27.413711578255</v>
       </c>
       <c r="M37" t="n">
-        <v>52.77779986093951</v>
+        <v>52.77779986093952</v>
       </c>
       <c r="N37" t="n">
-        <v>78.14188814362403</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O37" t="n">
         <v>102.4811647785233</v>
@@ -7122,25 +7122,25 @@
         <v>76.6020827637447</v>
       </c>
       <c r="S37" t="n">
-        <v>50.72300074896609</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T37" t="n">
-        <v>50.72300074896609</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U37" t="n">
-        <v>24.84391873418747</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V37" t="n">
-        <v>2.049623295570466</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W37" t="n">
-        <v>2.049623295570466</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X37" t="n">
-        <v>2.049623295570466</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.049623295570466</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="C38" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="D38" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="E38" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="F38" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="G38" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="H38" t="n">
         <v>2.049623295570466</v>
@@ -7177,19 +7177,19 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K38" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L38" t="n">
-        <v>2.049623295570466</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M38" t="n">
-        <v>26.38889993046976</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N38" t="n">
-        <v>51.75298821315428</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O38" t="n">
-        <v>77.1170764958388</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="P38" t="n">
         <v>102.4811647785233</v>
@@ -7204,22 +7204,22 @@
         <v>76.6020827637447</v>
       </c>
       <c r="T38" t="n">
-        <v>76.6020827637447</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U38" t="n">
-        <v>76.6020827637447</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V38" t="n">
-        <v>53.80778732512771</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W38" t="n">
-        <v>27.92870531034908</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X38" t="n">
-        <v>27.92870531034908</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K39" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L39" t="n">
-        <v>27.41371157825499</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M39" t="n">
-        <v>27.41371157825499</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N39" t="n">
-        <v>27.41371157825499</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O39" t="n">
-        <v>52.77779986093951</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P39" t="n">
-        <v>78.14188814362403</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q39" t="n">
         <v>102.4811647785233</v>
@@ -7283,19 +7283,19 @@
         <v>76.6020827637447</v>
       </c>
       <c r="T39" t="n">
-        <v>76.6020827637447</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U39" t="n">
-        <v>50.72300074896609</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="V39" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W39" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X39" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y39" t="n">
         <v>2.049623295570466</v>
@@ -7371,7 +7371,7 @@
         <v>24.84391873418747</v>
       </c>
       <c r="W40" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="X40" t="n">
         <v>2.049623295570466</v>
@@ -7402,10 +7402,10 @@
         <v>50.72300074896609</v>
       </c>
       <c r="G41" t="n">
-        <v>24.84391873418747</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="H41" t="n">
-        <v>24.84391873418747</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I41" t="n">
         <v>2.049623295570466</v>
@@ -7417,16 +7417,16 @@
         <v>27.41371157825499</v>
       </c>
       <c r="L41" t="n">
-        <v>27.41371157825499</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M41" t="n">
-        <v>51.75298821315428</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N41" t="n">
         <v>77.1170764958388</v>
       </c>
       <c r="O41" t="n">
-        <v>102.4811647785233</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P41" t="n">
         <v>102.4811647785233</v>
@@ -7438,25 +7438,25 @@
         <v>102.4811647785233</v>
       </c>
       <c r="S41" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T41" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U41" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V41" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W41" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X41" t="n">
         <v>76.6020827637447</v>
       </c>
       <c r="Y41" t="n">
-        <v>50.72300074896609</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C42" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D42" t="n">
-        <v>2.049623295570466</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="E42" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="F42" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="G42" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="H42" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="I42" t="n">
         <v>2.049623295570466</v>
@@ -7496,7 +7496,7 @@
         <v>27.41371157825499</v>
       </c>
       <c r="L42" t="n">
-        <v>27.41371157825499</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M42" t="n">
         <v>52.77779986093951</v>
@@ -7505,10 +7505,10 @@
         <v>52.77779986093951</v>
       </c>
       <c r="O42" t="n">
-        <v>52.77779986093951</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P42" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q42" t="n">
         <v>102.4811647785233</v>
@@ -7517,25 +7517,25 @@
         <v>102.4811647785233</v>
       </c>
       <c r="S42" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T42" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U42" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V42" t="n">
-        <v>27.92870531034908</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W42" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X42" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y42" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C43" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D43" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E43" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F43" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G43" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H43" t="n">
         <v>2.049623295570466</v>
@@ -7581,7 +7581,7 @@
         <v>52.77779986093951</v>
       </c>
       <c r="N43" t="n">
-        <v>78.14188814362404</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O43" t="n">
         <v>102.4811647785233</v>
@@ -7590,13 +7590,13 @@
         <v>102.4811647785233</v>
       </c>
       <c r="Q43" t="n">
-        <v>76.6020827637447</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="R43" t="n">
-        <v>50.72300074896609</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="S43" t="n">
-        <v>50.72300074896609</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="T43" t="n">
         <v>27.92870531034908</v>
@@ -7605,16 +7605,16 @@
         <v>27.92870531034908</v>
       </c>
       <c r="V43" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W43" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="X43" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>27.92870531034908</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="C44" t="n">
-        <v>27.92870531034908</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="D44" t="n">
-        <v>27.92870531034908</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="E44" t="n">
-        <v>27.92870531034908</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="F44" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G44" t="n">
         <v>2.049623295570466</v>
@@ -7654,16 +7654,16 @@
         <v>27.41371157825499</v>
       </c>
       <c r="L44" t="n">
-        <v>27.41371157825499</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M44" t="n">
-        <v>27.41371157825499</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N44" t="n">
-        <v>51.75298821315428</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O44" t="n">
-        <v>77.1170764958388</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="P44" t="n">
         <v>102.4811647785233</v>
@@ -7675,25 +7675,25 @@
         <v>102.4811647785233</v>
       </c>
       <c r="S44" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T44" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U44" t="n">
-        <v>79.68686933990632</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="V44" t="n">
-        <v>79.68686933990632</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="W44" t="n">
-        <v>79.68686933990632</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="X44" t="n">
-        <v>79.68686933990632</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="Y44" t="n">
-        <v>53.80778732512771</v>
+        <v>24.84391873418747</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C45" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D45" t="n">
         <v>2.049623295570466</v>
@@ -7730,22 +7730,22 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K45" t="n">
-        <v>2.049623295570466</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L45" t="n">
-        <v>27.41371157825499</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M45" t="n">
-        <v>27.41371157825499</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N45" t="n">
-        <v>52.77779986093951</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O45" t="n">
-        <v>78.14188814362403</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P45" t="n">
-        <v>78.14188814362403</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q45" t="n">
         <v>102.4811647785233</v>
@@ -7754,25 +7754,25 @@
         <v>102.4811647785233</v>
       </c>
       <c r="S45" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="T45" t="n">
-        <v>102.4811647785233</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="U45" t="n">
-        <v>102.4811647785233</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="V45" t="n">
-        <v>79.68686933990632</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="W45" t="n">
         <v>53.80778732512771</v>
       </c>
       <c r="X45" t="n">
-        <v>53.80778732512771</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y45" t="n">
-        <v>53.80778732512771</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>76.6020827637447</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="C46" t="n">
-        <v>76.6020827637447</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="D46" t="n">
-        <v>76.6020827637447</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="E46" t="n">
-        <v>76.6020827637447</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="F46" t="n">
-        <v>76.6020827637447</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="G46" t="n">
         <v>53.80778732512771</v>
       </c>
       <c r="H46" t="n">
-        <v>27.92870531034908</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="I46" t="n">
         <v>27.92870531034908</v>
@@ -7809,13 +7809,13 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K46" t="n">
-        <v>2.049623295570477</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L46" t="n">
-        <v>27.413711578255</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M46" t="n">
-        <v>52.77779986093952</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N46" t="n">
         <v>78.14188814362404</v>
@@ -7827,31 +7827,31 @@
         <v>102.4811647785233</v>
       </c>
       <c r="Q46" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="R46" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="S46" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="T46" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U46" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="V46" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="W46" t="n">
-        <v>76.6020827637447</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="X46" t="n">
-        <v>76.6020827637447</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="Y46" t="n">
-        <v>76.6020827637447</v>
+        <v>79.68686933990632</v>
       </c>
     </row>
   </sheetData>
@@ -9640,19 +9640,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>235.7664149699872</v>
+        <v>260.3515428840269</v>
       </c>
       <c r="M23" t="n">
-        <v>254.9313611413124</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N23" t="n">
         <v>255.0333547912217</v>
       </c>
       <c r="O23" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P23" t="n">
         <v>256.8532869499004</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N24" t="n">
         <v>155.926839997373</v>
       </c>
       <c r="O24" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9877,13 +9877,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>220.0898510449805</v>
+        <v>244.6749789590202</v>
       </c>
       <c r="L26" t="n">
-        <v>260.3515428840269</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M26" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N26" t="n">
         <v>255.0333547912217</v>
@@ -9892,7 +9892,7 @@
         <v>255.7185026163176</v>
       </c>
       <c r="P26" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9956,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L27" t="n">
-        <v>163.1395076939139</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N27" t="n">
-        <v>156.9620032779641</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -9974,7 +9974,7 @@
         <v>159.5946986089611</v>
       </c>
       <c r="Q27" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10114,16 +10114,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L29" t="n">
-        <v>260.3515428840269</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M29" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N29" t="n">
-        <v>229.4130635965909</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O29" t="n">
         <v>255.7185026163176</v>
@@ -10199,19 +10199,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>155.926839997373</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P30" t="n">
         <v>159.5946986089611</v>
       </c>
       <c r="Q30" t="n">
-        <v>165.6020652806523</v>
+        <v>164.5669020000612</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10351,22 +10351,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L32" t="n">
         <v>261.3867061646181</v>
       </c>
       <c r="M32" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N32" t="n">
         <v>253.9981915106306</v>
       </c>
       <c r="O32" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P32" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M33" t="n">
-        <v>167.7543251166491</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N33" t="n">
-        <v>156.9620032779641</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P33" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>164.5669020000612</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,13 +10588,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L35" t="n">
-        <v>261.3867061646181</v>
+        <v>260.3515428840269</v>
       </c>
       <c r="M35" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
         <v>229.4130635965909</v>
@@ -10603,7 +10603,7 @@
         <v>255.7185026163176</v>
       </c>
       <c r="P35" t="n">
-        <v>255.8181236693092</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N36" t="n">
-        <v>156.9620032779641</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O36" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>158.5595353283699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,22 +10825,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L38" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M38" t="n">
-        <v>254.9313611413124</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N38" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P38" t="n">
-        <v>256.8532869499004</v>
+        <v>255.8181236693092</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L39" t="n">
         <v>164.174670974505</v>
@@ -10913,16 +10913,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O39" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>159.5946986089611</v>
       </c>
       <c r="Q39" t="n">
-        <v>164.5669020000612</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11065,19 +11065,19 @@
         <v>245.7101422396114</v>
       </c>
       <c r="L41" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M41" t="n">
         <v>254.9313611413124</v>
       </c>
       <c r="N41" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11144,22 +11144,22 @@
         <v>163.4617301689898</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M42" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>167.1813723584841</v>
       </c>
       <c r="P42" t="n">
-        <v>158.5595353283699</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q42" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11302,19 +11302,19 @@
         <v>245.7101422396114</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M44" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
-        <v>253.9981915106306</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
         <v>255.7185026163176</v>
       </c>
       <c r="P44" t="n">
-        <v>256.8532869499004</v>
+        <v>255.8181236693092</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>162.4265668883987</v>
       </c>
       <c r="L45" t="n">
         <v>164.174670974505</v>
@@ -11390,13 +11390,13 @@
         <v>156.9620032779641</v>
       </c>
       <c r="O45" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>164.5669020000612</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -24223,10 +24223,10 @@
         <v>315.1449033624919</v>
       </c>
       <c r="H23" t="n">
-        <v>239.316967963124</v>
+        <v>213.6966767684932</v>
       </c>
       <c r="I23" t="n">
-        <v>110.3180554177628</v>
+        <v>84.69776422313194</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>24.09099259387572</v>
+        <v>27.14493130427572</v>
       </c>
       <c r="S23" t="n">
-        <v>83.24194423897137</v>
+        <v>108.8622354336022</v>
       </c>
       <c r="T23" t="n">
-        <v>122.9380154114882</v>
+        <v>97.31772421685739</v>
       </c>
       <c r="U23" t="n">
-        <v>125.5675275605625</v>
+        <v>151.1878187551933</v>
       </c>
       <c r="V23" t="n">
-        <v>205.0280718332609</v>
+        <v>227.5944243174918</v>
       </c>
       <c r="W23" t="n">
         <v>249.0831345647699</v>
@@ -24290,7 +24290,7 @@
         <v>72.55066483567261</v>
       </c>
       <c r="D24" t="n">
-        <v>24.72087892776479</v>
+        <v>47.28723141199562</v>
       </c>
       <c r="E24" t="n">
         <v>57.48724630275781</v>
@@ -24338,10 +24338,10 @@
         <v>45.90504575656386</v>
       </c>
       <c r="T24" t="n">
-        <v>74.38660334754763</v>
+        <v>100.0068945421785</v>
       </c>
       <c r="U24" t="n">
-        <v>125.7835479283317</v>
+        <v>100.1632567337008</v>
       </c>
       <c r="V24" t="n">
         <v>132.6427529967821</v>
@@ -24353,7 +24353,7 @@
         <v>105.6151510508343</v>
       </c>
       <c r="Y24" t="n">
-        <v>105.5248616246612</v>
+        <v>82.95850914043039</v>
       </c>
     </row>
     <row r="25">
@@ -24417,22 +24417,22 @@
         <v>98.23847268969828</v>
       </c>
       <c r="T25" t="n">
-        <v>105.2214027914075</v>
+        <v>127.7877552756384</v>
       </c>
       <c r="U25" t="n">
         <v>186.1611952038477</v>
       </c>
       <c r="V25" t="n">
-        <v>151.9798091711849</v>
+        <v>126.359517976554</v>
       </c>
       <c r="W25" t="n">
         <v>186.3651641839479</v>
       </c>
       <c r="X25" t="n">
-        <v>99.93153004176318</v>
+        <v>125.551821236394</v>
       </c>
       <c r="Y25" t="n">
-        <v>118.4268191994517</v>
+        <v>95.86046671522082</v>
       </c>
     </row>
     <row r="26">
@@ -24460,7 +24460,7 @@
         <v>325.90610466372</v>
       </c>
       <c r="H26" t="n">
-        <v>250.0781692643521</v>
+        <v>224.4578780697213</v>
       </c>
       <c r="I26" t="n">
         <v>121.0792567189908</v>
@@ -24493,16 +24493,16 @@
         <v>60.4724850897346</v>
       </c>
       <c r="S26" t="n">
-        <v>94.00314554019943</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T26" t="n">
-        <v>108.0789255180855</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U26" t="n">
-        <v>161.9490200564214</v>
+        <v>136.3287288617906</v>
       </c>
       <c r="V26" t="n">
-        <v>238.3556256187198</v>
+        <v>212.735334424089</v>
       </c>
       <c r="W26" t="n">
         <v>237.2779833817671</v>
@@ -24511,7 +24511,7 @@
         <v>280.334467827054</v>
       </c>
       <c r="Y26" t="n">
-        <v>271.2210146100077</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="27">
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>77.13655079845226</v>
+        <v>51.51625960382143</v>
       </c>
       <c r="C27" t="n">
-        <v>83.31186613690066</v>
+        <v>57.69157494226983</v>
       </c>
       <c r="D27" t="n">
-        <v>58.04843271322368</v>
+        <v>32.42814151859285</v>
       </c>
       <c r="E27" t="n">
         <v>68.24844760398587</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S27" t="n">
-        <v>56.66624705779191</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T27" t="n">
         <v>110.7680958434065</v>
       </c>
       <c r="U27" t="n">
-        <v>110.9244580349289</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V27" t="n">
         <v>143.4039542980102</v>
       </c>
       <c r="W27" t="n">
-        <v>136.6780591148737</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X27" t="n">
         <v>116.3763523520624</v>
       </c>
       <c r="Y27" t="n">
-        <v>104.4809117428865</v>
+        <v>93.71971044165846</v>
       </c>
     </row>
     <row r="28">
@@ -24612,10 +24612,10 @@
         <v>57.03732979515409</v>
       </c>
       <c r="F28" t="n">
-        <v>56.02441517151617</v>
+        <v>30.40412397688534</v>
       </c>
       <c r="G28" t="n">
-        <v>78.59434650704368</v>
+        <v>56.02799402281285</v>
       </c>
       <c r="H28" t="n">
         <v>72.8305396560245</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>65.33040604152359</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S28" t="n">
-        <v>108.9996739909264</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T28" t="n">
-        <v>112.9286653822356</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U28" t="n">
-        <v>171.302105310445</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V28" t="n">
         <v>162.7410104724129</v>
       </c>
       <c r="W28" t="n">
-        <v>197.1263654851759</v>
+        <v>171.5060742905451</v>
       </c>
       <c r="X28" t="n">
-        <v>136.3130225376221</v>
+        <v>110.6927313429913</v>
       </c>
       <c r="Y28" t="n">
         <v>129.1880205006797</v>
@@ -24682,16 +24682,16 @@
         <v>293.3372088120655</v>
       </c>
       <c r="C29" t="n">
-        <v>275.8762589195925</v>
+        <v>253.3099064353617</v>
       </c>
       <c r="D29" t="n">
-        <v>265.2864087692679</v>
+        <v>239.6661175746371</v>
       </c>
       <c r="E29" t="n">
         <v>266.9134460262159</v>
       </c>
       <c r="F29" t="n">
-        <v>291.8591216956655</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G29" t="n">
         <v>325.90610466372</v>
@@ -24742,7 +24742,7 @@
         <v>238.3556256187198</v>
       </c>
       <c r="W29" t="n">
-        <v>237.2779833817671</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X29" t="n">
         <v>280.334467827054</v>
@@ -24812,19 +24812,19 @@
         <v>56.66624705779191</v>
       </c>
       <c r="T30" t="n">
-        <v>98.96294466040376</v>
+        <v>85.14780464877569</v>
       </c>
       <c r="U30" t="n">
         <v>110.9244580349289</v>
       </c>
       <c r="V30" t="n">
-        <v>143.4039542980102</v>
+        <v>131.5988031150074</v>
       </c>
       <c r="W30" t="n">
         <v>162.2983503095045</v>
       </c>
       <c r="X30" t="n">
-        <v>90.75606115743156</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y30" t="n">
         <v>116.2860629258893</v>
@@ -24855,7 +24855,7 @@
         <v>78.59434650704368</v>
       </c>
       <c r="H31" t="n">
-        <v>72.8305396560245</v>
+        <v>50.26418717179367</v>
       </c>
       <c r="I31" t="n">
         <v>66.05384207584321</v>
@@ -24891,10 +24891,10 @@
         <v>108.9996739909264</v>
       </c>
       <c r="T31" t="n">
-        <v>112.9286653822356</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U31" t="n">
-        <v>174.356044020845</v>
+        <v>171.302105310445</v>
       </c>
       <c r="V31" t="n">
         <v>162.7410104724129</v>
@@ -24931,7 +24931,7 @@
         <v>302.046532867735</v>
       </c>
       <c r="G32" t="n">
-        <v>284.8529334465277</v>
+        <v>310.4732246411586</v>
       </c>
       <c r="H32" t="n">
         <v>234.6452892417907</v>
@@ -24967,19 +24967,19 @@
         <v>19.4193138725424</v>
       </c>
       <c r="S32" t="n">
-        <v>81.62420422803805</v>
+        <v>78.57026551763806</v>
       </c>
       <c r="T32" t="n">
-        <v>118.2663366901549</v>
+        <v>92.64604549552408</v>
       </c>
       <c r="U32" t="n">
-        <v>146.51614003386</v>
+        <v>123.9497875496292</v>
       </c>
       <c r="V32" t="n">
         <v>222.9227455961584</v>
       </c>
       <c r="W32" t="n">
-        <v>218.7911646488057</v>
+        <v>244.4114558434366</v>
       </c>
       <c r="X32" t="n">
         <v>264.9015878044926</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>61.70367077589088</v>
+        <v>36.08337958126005</v>
       </c>
       <c r="C33" t="n">
         <v>67.87898611433928</v>
@@ -25046,22 +25046,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>41.23336703523054</v>
+        <v>66.85365822986137</v>
       </c>
       <c r="T33" t="n">
-        <v>72.76886333661432</v>
+        <v>95.33521582084515</v>
       </c>
       <c r="U33" t="n">
         <v>121.1118692069984</v>
       </c>
       <c r="V33" t="n">
-        <v>102.350783080818</v>
+        <v>127.9710742754488</v>
       </c>
       <c r="W33" t="n">
-        <v>146.8654702869432</v>
+        <v>124.2991178027123</v>
       </c>
       <c r="X33" t="n">
-        <v>100.943472329501</v>
+        <v>75.3231811348702</v>
       </c>
       <c r="Y33" t="n">
         <v>75.23289170869708</v>
@@ -25083,10 +25083,10 @@
         <v>43.7859601442359</v>
       </c>
       <c r="E34" t="n">
-        <v>41.60444977259272</v>
+        <v>15.98415857796189</v>
       </c>
       <c r="F34" t="n">
-        <v>40.59153514895479</v>
+        <v>18.02518266472396</v>
       </c>
       <c r="G34" t="n">
         <v>63.1614664844823</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>72.46387850319303</v>
+        <v>46.8435873085622</v>
       </c>
       <c r="S34" t="n">
         <v>93.56679396836498</v>
       </c>
       <c r="T34" t="n">
-        <v>97.49578535967422</v>
+        <v>123.116076554305</v>
       </c>
       <c r="U34" t="n">
-        <v>158.9231639982836</v>
+        <v>181.4895164825144</v>
       </c>
       <c r="V34" t="n">
         <v>147.3081304498515</v>
@@ -25140,7 +25140,7 @@
         <v>181.6934854626145</v>
       </c>
       <c r="X34" t="n">
-        <v>95.25985132042987</v>
+        <v>120.8801425150607</v>
       </c>
       <c r="Y34" t="n">
         <v>113.7551404781183</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>255.3379763052733</v>
+        <v>252.2840375948733</v>
       </c>
       <c r="C35" t="n">
         <v>260.4433788970311</v>
@@ -25165,13 +25165,13 @@
         <v>277.1008571982853</v>
       </c>
       <c r="F35" t="n">
-        <v>276.4262416731041</v>
+        <v>302.046532867735</v>
       </c>
       <c r="G35" t="n">
         <v>310.4732246411586</v>
       </c>
       <c r="H35" t="n">
-        <v>234.6452892417907</v>
+        <v>212.0789367575599</v>
       </c>
       <c r="I35" t="n">
         <v>105.6463766964295</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>45.03960506717323</v>
+        <v>19.4193138725424</v>
       </c>
       <c r="S35" t="n">
         <v>104.1905567122689</v>
       </c>
       <c r="T35" t="n">
-        <v>118.2663366901549</v>
+        <v>92.64604549552408</v>
       </c>
       <c r="U35" t="n">
-        <v>120.8958488392292</v>
+        <v>146.51614003386</v>
       </c>
       <c r="V35" t="n">
         <v>222.9227455961584</v>
@@ -25222,7 +25222,7 @@
         <v>264.9015878044926</v>
       </c>
       <c r="Y35" t="n">
-        <v>255.7881345874463</v>
+        <v>281.4084257820771</v>
       </c>
     </row>
     <row r="36">
@@ -25250,7 +25250,7 @@
         <v>32.51400428923418</v>
       </c>
       <c r="H36" t="n">
-        <v>7.405931362520008</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25286,13 +25286,13 @@
         <v>41.23336703523054</v>
       </c>
       <c r="T36" t="n">
-        <v>72.76886333661432</v>
+        <v>95.33521582084515</v>
       </c>
       <c r="U36" t="n">
         <v>95.49157801236754</v>
       </c>
       <c r="V36" t="n">
-        <v>102.350783080818</v>
+        <v>112.810653153738</v>
       </c>
       <c r="W36" t="n">
         <v>146.8654702869432</v>
@@ -25301,7 +25301,7 @@
         <v>100.943472329501</v>
       </c>
       <c r="Y36" t="n">
-        <v>100.8531829033279</v>
+        <v>75.23289170869708</v>
       </c>
     </row>
     <row r="37">
@@ -25317,7 +25317,7 @@
         <v>62.41730822465138</v>
       </c>
       <c r="D37" t="n">
-        <v>43.7859601442359</v>
+        <v>18.16566894960507</v>
       </c>
       <c r="E37" t="n">
         <v>41.60444977259272</v>
@@ -25329,10 +25329,10 @@
         <v>63.1614664844823</v>
       </c>
       <c r="H37" t="n">
-        <v>57.39765963346312</v>
+        <v>31.77736843883229</v>
       </c>
       <c r="I37" t="n">
-        <v>50.62096205328183</v>
+        <v>28.054609569051</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>46.8435873085622</v>
       </c>
       <c r="S37" t="n">
-        <v>93.56679396836498</v>
+        <v>119.1870851629958</v>
       </c>
       <c r="T37" t="n">
         <v>123.116076554305</v>
       </c>
       <c r="U37" t="n">
-        <v>155.8692252878836</v>
+        <v>181.4895164825144</v>
       </c>
       <c r="V37" t="n">
-        <v>124.7417779656207</v>
+        <v>147.3081304498515</v>
       </c>
       <c r="W37" t="n">
         <v>181.6934854626145</v>
@@ -25405,10 +25405,10 @@
         <v>302.046532867735</v>
       </c>
       <c r="G38" t="n">
-        <v>310.4732246411586</v>
+        <v>284.8529334465277</v>
       </c>
       <c r="H38" t="n">
-        <v>234.6452892417907</v>
+        <v>212.0789367575599</v>
       </c>
       <c r="I38" t="n">
         <v>105.6463766964295</v>
@@ -25444,22 +25444,22 @@
         <v>104.1905567122689</v>
       </c>
       <c r="T38" t="n">
-        <v>118.2663366901549</v>
+        <v>92.64604549552408</v>
       </c>
       <c r="U38" t="n">
         <v>146.51614003386</v>
       </c>
       <c r="V38" t="n">
-        <v>200.3563931119276</v>
+        <v>222.9227455961584</v>
       </c>
       <c r="W38" t="n">
-        <v>218.7911646488057</v>
+        <v>244.4114558434366</v>
       </c>
       <c r="X38" t="n">
         <v>264.9015878044926</v>
       </c>
       <c r="Y38" t="n">
-        <v>255.7881345874463</v>
+        <v>281.4084257820771</v>
       </c>
     </row>
     <row r="39">
@@ -25523,22 +25523,22 @@
         <v>41.23336703523054</v>
       </c>
       <c r="T39" t="n">
-        <v>95.33521582084515</v>
+        <v>69.71492462621433</v>
       </c>
       <c r="U39" t="n">
         <v>95.49157801236754</v>
       </c>
       <c r="V39" t="n">
-        <v>127.9710742754488</v>
+        <v>105.404721791218</v>
       </c>
       <c r="W39" t="n">
-        <v>124.2991178027123</v>
+        <v>146.8654702869432</v>
       </c>
       <c r="X39" t="n">
         <v>100.943472329501</v>
       </c>
       <c r="Y39" t="n">
-        <v>75.23289170869708</v>
+        <v>100.8531829033279</v>
       </c>
     </row>
     <row r="40">
@@ -25611,10 +25611,10 @@
         <v>147.3081304498515</v>
       </c>
       <c r="W40" t="n">
-        <v>159.1271329783837</v>
+        <v>181.6934854626145</v>
       </c>
       <c r="X40" t="n">
-        <v>120.8801425150607</v>
+        <v>98.31379003082986</v>
       </c>
       <c r="Y40" t="n">
         <v>113.7551404781183</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>356.5397603396912</v>
+        <v>330.9194691450603</v>
       </c>
       <c r="C41" t="n">
         <v>339.0788104472181</v>
@@ -25642,13 +25642,13 @@
         <v>380.681964417922</v>
       </c>
       <c r="G41" t="n">
-        <v>363.4883649967148</v>
+        <v>389.1086561913456</v>
       </c>
       <c r="H41" t="n">
-        <v>313.2807207919777</v>
+        <v>290.7143683077469</v>
       </c>
       <c r="I41" t="n">
-        <v>161.7154557623857</v>
+        <v>158.6615170519857</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>123.6750366173602</v>
       </c>
       <c r="S41" t="n">
-        <v>182.8259882624559</v>
+        <v>157.2056970678251</v>
       </c>
       <c r="T41" t="n">
         <v>196.9017682403419</v>
@@ -25693,10 +25693,10 @@
         <v>323.0468873936236</v>
       </c>
       <c r="X41" t="n">
-        <v>317.9167281600488</v>
+        <v>343.5370193546796</v>
       </c>
       <c r="Y41" t="n">
-        <v>334.4235661376333</v>
+        <v>360.0438573322642</v>
       </c>
     </row>
     <row r="42">
@@ -25712,13 +25712,13 @@
         <v>146.5144176645263</v>
       </c>
       <c r="D42" t="n">
-        <v>121.2509842408493</v>
+        <v>95.63069304621848</v>
       </c>
       <c r="E42" t="n">
-        <v>131.4509991316115</v>
+        <v>105.8307079369807</v>
       </c>
       <c r="F42" t="n">
-        <v>118.8751310695944</v>
+        <v>93.25483987496361</v>
       </c>
       <c r="G42" t="n">
         <v>111.1494358394212</v>
@@ -25727,7 +25727,7 @@
         <v>86.04136291270703</v>
       </c>
       <c r="I42" t="n">
-        <v>63.20255152762564</v>
+        <v>40.63619904339481</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,19 +25757,19 @@
         <v>73.9637528288537</v>
       </c>
       <c r="S42" t="n">
-        <v>119.8687985854176</v>
+        <v>145.4890897800484</v>
       </c>
       <c r="T42" t="n">
         <v>173.9706473710322</v>
       </c>
       <c r="U42" t="n">
-        <v>174.1270095625545</v>
+        <v>199.7473007571854</v>
       </c>
       <c r="V42" t="n">
-        <v>184.040153341405</v>
+        <v>206.6065058256358</v>
       </c>
       <c r="W42" t="n">
-        <v>199.8806106424994</v>
+        <v>225.5009018371302</v>
       </c>
       <c r="X42" t="n">
         <v>179.578903879688</v>
@@ -25803,7 +25803,7 @@
         <v>141.7968980346693</v>
       </c>
       <c r="H43" t="n">
-        <v>136.0330911836501</v>
+        <v>110.4127999890193</v>
       </c>
       <c r="I43" t="n">
         <v>129.2563936034688</v>
@@ -25830,22 +25830,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>34.34767073327412</v>
+        <v>37.40160944367413</v>
       </c>
       <c r="R43" t="n">
         <v>125.4790188587492</v>
       </c>
       <c r="S43" t="n">
-        <v>197.8225167131828</v>
+        <v>172.202225518552</v>
       </c>
       <c r="T43" t="n">
-        <v>179.1851556202612</v>
+        <v>201.7515081044921</v>
       </c>
       <c r="U43" t="n">
         <v>260.1249480327015</v>
       </c>
       <c r="V43" t="n">
-        <v>200.3232708054078</v>
+        <v>225.9435620000386</v>
       </c>
       <c r="W43" t="n">
         <v>260.3289170128016</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>330.9194691450603</v>
+        <v>356.5397603396912</v>
       </c>
       <c r="C44" t="n">
         <v>339.0788104472181</v>
@@ -25876,10 +25876,10 @@
         <v>355.7362887484724</v>
       </c>
       <c r="F44" t="n">
-        <v>380.681964417922</v>
+        <v>358.1156119336912</v>
       </c>
       <c r="G44" t="n">
-        <v>363.4883649967148</v>
+        <v>389.1086561913456</v>
       </c>
       <c r="H44" t="n">
         <v>313.2807207919777</v>
@@ -25915,13 +25915,13 @@
         <v>123.6750366173602</v>
       </c>
       <c r="S44" t="n">
-        <v>182.8259882624559</v>
+        <v>157.2056970678251</v>
       </c>
       <c r="T44" t="n">
-        <v>196.9017682403419</v>
+        <v>171.2814770457111</v>
       </c>
       <c r="U44" t="n">
-        <v>202.5852190998162</v>
+        <v>199.5312803894163</v>
       </c>
       <c r="V44" t="n">
         <v>301.5581771463455</v>
@@ -25933,7 +25933,7 @@
         <v>343.5370193546796</v>
       </c>
       <c r="Y44" t="n">
-        <v>334.4235661376333</v>
+        <v>360.0438573322642</v>
       </c>
     </row>
     <row r="45">
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>114.7188111314471</v>
+        <v>140.3391023260779</v>
       </c>
       <c r="C45" t="n">
         <v>146.5144176645263</v>
       </c>
       <c r="D45" t="n">
-        <v>95.63069304621848</v>
+        <v>121.2509842408493</v>
       </c>
       <c r="E45" t="n">
         <v>131.4509991316115</v>
@@ -25994,25 +25994,25 @@
         <v>73.9637528288537</v>
       </c>
       <c r="S45" t="n">
-        <v>145.4890897800484</v>
+        <v>122.9227372958176</v>
       </c>
       <c r="T45" t="n">
-        <v>173.9706473710322</v>
+        <v>148.3503561764013</v>
       </c>
       <c r="U45" t="n">
         <v>199.7473007571854</v>
       </c>
       <c r="V45" t="n">
-        <v>184.040153341405</v>
+        <v>206.6065058256358</v>
       </c>
       <c r="W45" t="n">
-        <v>199.8806106424994</v>
+        <v>225.5009018371302</v>
       </c>
       <c r="X45" t="n">
-        <v>179.578903879688</v>
+        <v>153.9586126850572</v>
       </c>
       <c r="Y45" t="n">
-        <v>179.4886144535149</v>
+        <v>153.8683232588841</v>
       </c>
     </row>
     <row r="46">
@@ -26034,16 +26034,16 @@
         <v>120.2398813227797</v>
       </c>
       <c r="F46" t="n">
-        <v>119.2269666991418</v>
+        <v>93.60667550451097</v>
       </c>
       <c r="G46" t="n">
-        <v>119.2305455504385</v>
+        <v>141.7968980346693</v>
       </c>
       <c r="H46" t="n">
-        <v>110.4127999890193</v>
+        <v>136.0330911836501</v>
       </c>
       <c r="I46" t="n">
-        <v>129.2563936034688</v>
+        <v>103.636102408838</v>
       </c>
       <c r="J46" t="n">
         <v>41.54480759825251</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>59.96796192790495</v>
+        <v>37.40160944367413</v>
       </c>
       <c r="R46" t="n">
         <v>151.0993100533801</v>
@@ -26085,7 +26085,7 @@
         <v>225.9435620000386</v>
       </c>
       <c r="W46" t="n">
-        <v>234.7086258181708</v>
+        <v>260.3289170128016</v>
       </c>
       <c r="X46" t="n">
         <v>199.5155740652477</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>493123.0047838135</v>
+        <v>493123.0047838134</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>523122.7990236928</v>
+        <v>523122.7990236927</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>365115.3399960671</v>
+        <v>365115.3399960672</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>737348.704845335</v>
+        <v>737348.7048453348</v>
       </c>
       <c r="C2" t="n">
-        <v>737348.7048453345</v>
+        <v>737348.7048453348</v>
       </c>
       <c r="D2" t="n">
         <v>737348.7048453344</v>
       </c>
       <c r="E2" t="n">
-        <v>387392.9531166677</v>
+        <v>387392.9531166673</v>
       </c>
       <c r="F2" t="n">
-        <v>387392.9531166673</v>
+        <v>387392.9531166678</v>
       </c>
       <c r="G2" t="n">
         <v>409692.2463116444</v>
       </c>
       <c r="H2" t="n">
-        <v>409692.2463116444</v>
+        <v>409692.2463116443</v>
       </c>
       <c r="I2" t="n">
-        <v>422756.9838169958</v>
+        <v>422756.9838169959</v>
       </c>
       <c r="J2" t="n">
-        <v>400457.6906220188</v>
+        <v>400457.6906220191</v>
       </c>
       <c r="K2" t="n">
-        <v>400457.6906220188</v>
+        <v>400457.6906220191</v>
       </c>
       <c r="L2" t="n">
         <v>432222.1786407145</v>
       </c>
       <c r="M2" t="n">
-        <v>432222.1786407145</v>
+        <v>432222.1786407146</v>
       </c>
       <c r="N2" t="n">
-        <v>432222.1786407145</v>
+        <v>432222.1786407144</v>
       </c>
       <c r="O2" t="n">
         <v>264920.1631996993</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>251321.1142963698</v>
+        <v>251276.9785176885</v>
       </c>
       <c r="C6" t="n">
-        <v>251321.1142963693</v>
+        <v>251276.9785176885</v>
       </c>
       <c r="D6" t="n">
-        <v>251321.1142963692</v>
+        <v>251276.9785176881</v>
       </c>
       <c r="E6" t="n">
-        <v>77897.08297320269</v>
+        <v>68131.95409094708</v>
       </c>
       <c r="F6" t="n">
-        <v>149414.3892543343</v>
+        <v>139649.2603720796</v>
       </c>
       <c r="G6" t="n">
-        <v>148058.1464604313</v>
+        <v>138912.4423891476</v>
       </c>
       <c r="H6" t="n">
-        <v>156667.1075014138</v>
+        <v>147521.40343013</v>
       </c>
       <c r="I6" t="n">
-        <v>153933.383063687</v>
+        <v>145150.5883675521</v>
       </c>
       <c r="J6" t="n">
-        <v>90585.29303122542</v>
+        <v>81183.07352411922</v>
       </c>
       <c r="K6" t="n">
-        <v>153493.6382713751</v>
+        <v>144091.4187642688</v>
       </c>
       <c r="L6" t="n">
-        <v>142860.8522922543</v>
+        <v>134340.9796745559</v>
       </c>
       <c r="M6" t="n">
-        <v>163816.1173512859</v>
+        <v>155296.2447335875</v>
       </c>
       <c r="N6" t="n">
-        <v>163816.1173512859</v>
+        <v>155296.2447335874</v>
       </c>
       <c r="O6" t="n">
-        <v>109225.4396607422</v>
+        <v>96058.28883634905</v>
       </c>
       <c r="P6" t="n">
-        <v>109225.4396607423</v>
+        <v>96058.28883634902</v>
       </c>
     </row>
   </sheetData>
@@ -36360,19 +36360,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="M23" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P23" t="n">
         <v>25.62029119463083</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N24" t="n">
         <v>24.58512791403969</v>
       </c>
       <c r="O24" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36524,7 +36524,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="M25" t="n">
-        <v>25.62029119463084</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N25" t="n">
         <v>25.62029119463083</v>
@@ -36597,13 +36597,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L26" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N26" t="n">
         <v>25.62029119463083</v>
@@ -36612,7 +36612,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="P26" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L27" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="M27" t="n">
         <v>24.58512791403969</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
       <c r="N27" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="Q27" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36767,7 +36767,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="O28" t="n">
-        <v>24.58512791403969</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36834,16 +36834,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>24.58512791403969</v>
-      </c>
-      <c r="M29" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>25.62029119463083</v>
@@ -36919,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="N30" t="n">
-        <v>24.58512791403969</v>
-      </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P30" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="Q30" t="n">
-        <v>25.62029119463083</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36998,13 +36998,13 @@
         <v>25.62029119463083</v>
       </c>
       <c r="M31" t="n">
-        <v>25.62029119463083</v>
+        <v>25.62029119463084</v>
       </c>
       <c r="N31" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="O31" t="n">
-        <v>24.58512791403969</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L32" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N32" t="n">
         <v>24.58512791403969</v>
       </c>
       <c r="O32" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M33" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="N33" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
       <c r="P33" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37232,7 +37232,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>25.62029119463084</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M34" t="n">
         <v>25.62029119463083</v>
@@ -37308,13 +37308,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L35" t="n">
-        <v>25.62029119463083</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="M35" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="P35" t="n">
-        <v>24.58512791403969</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N36" t="n">
-        <v>25.62029119463083</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O36" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M38" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
         <v>24.58512791403969</v>
-      </c>
-      <c r="N38" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="O38" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="P38" t="n">
-        <v>25.62029119463083</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L39" t="n">
         <v>25.62029119463083</v>
@@ -37633,16 +37633,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O39" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="Q39" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,19 +37785,19 @@
         <v>25.62029119463083</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M41" t="n">
         <v>24.58512791403969</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="O41" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>25.62029119463083</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="P42" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>24.58512791403969</v>
-      </c>
       <c r="Q42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,19 +38022,19 @@
         <v>25.62029119463083</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="P44" t="n">
-        <v>25.62029119463083</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L45" t="n">
         <v>25.62029119463083</v>
@@ -38110,13 +38110,13 @@
         <v>25.62029119463083</v>
       </c>
       <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>24.58512791403969</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
